--- a/Brackets/Rififi #35 bracket.xlsx
+++ b/Brackets/Rififi #35 bracket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugor\GitHub\MarioKartTopGenerator\Brackets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugor\Documents\GitHub\MarioKart\MarioKartTopGenerator\Brackets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA9D52C-9D55-4065-83B8-DD45CE210016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1182E1C4-9442-471E-8159-F0C119086DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2F0D60C5-63AA-4767-A59B-0FBF4FA7B0CE}"/>
+    <workbookView xWindow="-28920" yWindow="5250" windowWidth="29040" windowHeight="16440" xr2:uid="{2F0D60C5-63AA-4767-A59B-0FBF4FA7B0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Solo 16" sheetId="1" r:id="rId1"/>
@@ -1438,6 +1438,42 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1447,6 +1483,129 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1474,27 +1633,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1537,15 +1675,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1554,135 +1683,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2665,135 +2665,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB383F4-5B81-4835-B94B-188E90A9AF44}">
   <dimension ref="A1:BE148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" style="65" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="144" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="145" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="145" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="145" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" style="145" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="145" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="145" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" style="145" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="145" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="145" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="145" customWidth="1"/>
-    <col min="14" max="14" width="36.33203125" style="145" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="29.88671875" style="145" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" style="145" customWidth="1"/>
-    <col min="17" max="18" width="30.6640625" style="145" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="145" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" style="145" customWidth="1"/>
-    <col min="21" max="22" width="4.6640625" style="145" customWidth="1"/>
-    <col min="23" max="24" width="30.6640625" style="145" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" style="145" customWidth="1"/>
-    <col min="26" max="26" width="10.5546875" style="145" customWidth="1"/>
-    <col min="27" max="28" width="4.6640625" style="145" customWidth="1"/>
-    <col min="29" max="30" width="30.6640625" style="145" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" style="145" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" style="145" customWidth="1"/>
-    <col min="33" max="34" width="4.6640625" style="145" customWidth="1"/>
-    <col min="35" max="36" width="30.6640625" style="145" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" style="145" customWidth="1"/>
-    <col min="38" max="38" width="10.5546875" style="145" customWidth="1"/>
-    <col min="39" max="40" width="4.6640625" style="145" customWidth="1"/>
-    <col min="41" max="42" width="30.6640625" style="145" customWidth="1"/>
-    <col min="43" max="43" width="4.6640625" style="145" customWidth="1"/>
-    <col min="44" max="44" width="10.5546875" style="145" customWidth="1"/>
-    <col min="45" max="45" width="13.33203125" style="145" customWidth="1"/>
-    <col min="46" max="47" width="4.6640625" style="145" customWidth="1"/>
-    <col min="48" max="49" width="30.6640625" style="145" customWidth="1"/>
-    <col min="50" max="50" width="10.5546875" style="145" customWidth="1"/>
-    <col min="51" max="51" width="4.6640625" style="145" customWidth="1"/>
-    <col min="52" max="52" width="13.33203125" style="145" customWidth="1"/>
-    <col min="53" max="53" width="5.6640625" style="145" customWidth="1"/>
-    <col min="54" max="56" width="13.33203125" style="145" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="5.6640625" style="145" hidden="1" customWidth="1"/>
-    <col min="58" max="16384" width="11.44140625" style="145" hidden="1"/>
+    <col min="1" max="1" width="31.42578125" style="65" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="124" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="110" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="110" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="110" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" style="110" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="110" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="110" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="110" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="110" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="110" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="110" customWidth="1"/>
+    <col min="14" max="14" width="36.28515625" style="110" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" style="110" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" style="110" customWidth="1"/>
+    <col min="17" max="18" width="30.7109375" style="110" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="110" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="110" customWidth="1"/>
+    <col min="21" max="22" width="4.7109375" style="110" customWidth="1"/>
+    <col min="23" max="24" width="30.7109375" style="110" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" style="110" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" style="110" customWidth="1"/>
+    <col min="27" max="28" width="4.7109375" style="110" customWidth="1"/>
+    <col min="29" max="30" width="30.7109375" style="110" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" style="110" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" style="110" customWidth="1"/>
+    <col min="33" max="34" width="4.7109375" style="110" customWidth="1"/>
+    <col min="35" max="36" width="30.7109375" style="110" customWidth="1"/>
+    <col min="37" max="37" width="4.7109375" style="110" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" style="110" customWidth="1"/>
+    <col min="39" max="40" width="4.7109375" style="110" customWidth="1"/>
+    <col min="41" max="42" width="30.7109375" style="110" customWidth="1"/>
+    <col min="43" max="43" width="4.7109375" style="110" customWidth="1"/>
+    <col min="44" max="44" width="10.5703125" style="110" customWidth="1"/>
+    <col min="45" max="45" width="13.28515625" style="110" customWidth="1"/>
+    <col min="46" max="47" width="4.7109375" style="110" customWidth="1"/>
+    <col min="48" max="49" width="30.7109375" style="110" customWidth="1"/>
+    <col min="50" max="50" width="10.5703125" style="110" customWidth="1"/>
+    <col min="51" max="51" width="4.7109375" style="110" customWidth="1"/>
+    <col min="52" max="52" width="13.28515625" style="110" customWidth="1"/>
+    <col min="53" max="53" width="5.7109375" style="110" customWidth="1"/>
+    <col min="54" max="56" width="13.28515625" style="110" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="5.7109375" style="110" hidden="1" customWidth="1"/>
+    <col min="58" max="16384" width="11.42578125" style="110" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="142" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:57" s="122" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="143"/>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="143"/>
-      <c r="AD1" s="143"/>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="143"/>
-      <c r="AX1" s="143"/>
-      <c r="AY1" s="143"/>
-      <c r="AZ1" s="143"/>
-      <c r="BA1" s="143"/>
-      <c r="BB1" s="143"/>
-      <c r="BC1" s="143"/>
-      <c r="BD1" s="143"/>
-      <c r="BE1" s="143"/>
-    </row>
-    <row r="2" spans="1:57" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123"/>
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="123"/>
+      <c r="AV1" s="123"/>
+      <c r="AW1" s="123"/>
+      <c r="AX1" s="123"/>
+      <c r="AY1" s="123"/>
+      <c r="AZ1" s="123"/>
+      <c r="BA1" s="123"/>
+      <c r="BB1" s="123"/>
+      <c r="BC1" s="123"/>
+      <c r="BD1" s="123"/>
+      <c r="BE1" s="123"/>
+    </row>
+    <row r="2" spans="1:57" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="121" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="167" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="135"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="107"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
@@ -2825,7 +2825,7 @@
       <c r="AO2" s="27"/>
       <c r="AP2" s="27"/>
       <c r="AQ2" s="27"/>
-      <c r="AR2" s="135"/>
+      <c r="AR2" s="107"/>
       <c r="AS2" s="27"/>
       <c r="AT2" s="27"/>
       <c r="AU2" s="27"/>
@@ -2834,24 +2834,24 @@
       <c r="AX2" s="27"/>
       <c r="AY2" s="27"/>
       <c r="AZ2" s="28"/>
-      <c r="BA2" s="145"/>
+      <c r="BA2" s="110"/>
       <c r="BE2" s="83"/>
     </row>
-    <row r="3" spans="1:57" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="136"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="108"/>
       <c r="M3" s="84"/>
       <c r="N3" s="84"/>
       <c r="O3" s="84"/>
@@ -2883,7 +2883,7 @@
       <c r="AO3" s="75"/>
       <c r="AP3" s="75"/>
       <c r="AQ3" s="75"/>
-      <c r="AR3" s="136"/>
+      <c r="AR3" s="108"/>
       <c r="AS3" s="75"/>
       <c r="AT3" s="75"/>
       <c r="AU3" s="75"/>
@@ -2892,24 +2892,24 @@
       <c r="AX3" s="75"/>
       <c r="AY3" s="75"/>
       <c r="AZ3" s="29"/>
-      <c r="BA3" s="145"/>
+      <c r="BA3" s="110"/>
       <c r="BE3" s="83"/>
     </row>
-    <row r="4" spans="1:57" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="136"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="108"/>
       <c r="M4" s="75"/>
       <c r="N4" s="75"/>
       <c r="O4" s="75"/>
@@ -2941,7 +2941,7 @@
       <c r="AO4" s="75"/>
       <c r="AP4" s="75"/>
       <c r="AQ4" s="75"/>
-      <c r="AR4" s="136"/>
+      <c r="AR4" s="108"/>
       <c r="AS4" s="75"/>
       <c r="AT4" s="75"/>
       <c r="AU4" s="75"/>
@@ -2950,207 +2950,207 @@
       <c r="AX4" s="75"/>
       <c r="AY4" s="75"/>
       <c r="AZ4" s="29"/>
-      <c r="BA4" s="145"/>
+      <c r="BA4" s="110"/>
       <c r="BE4" s="83"/>
     </row>
-    <row r="5" spans="1:57" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="155" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
-      <c r="S5" s="156"/>
-      <c r="T5" s="156"/>
-      <c r="U5" s="156"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
-      <c r="X5" s="156"/>
-      <c r="Y5" s="156"/>
-      <c r="Z5" s="156"/>
-      <c r="AA5" s="156"/>
-      <c r="AB5" s="156"/>
-      <c r="AC5" s="156"/>
-      <c r="AD5" s="156"/>
-      <c r="AE5" s="156"/>
-      <c r="AF5" s="156"/>
-      <c r="AG5" s="156"/>
-      <c r="AH5" s="156"/>
-      <c r="AI5" s="156"/>
-      <c r="AJ5" s="156"/>
-      <c r="AK5" s="156"/>
-      <c r="AL5" s="156"/>
-      <c r="AM5" s="156"/>
-      <c r="AN5" s="156"/>
-      <c r="AO5" s="156"/>
-      <c r="AP5" s="156"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="136"/>
-      <c r="AS5" s="170" t="s">
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135"/>
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="135"/>
+      <c r="AE5" s="135"/>
+      <c r="AF5" s="135"/>
+      <c r="AG5" s="135"/>
+      <c r="AH5" s="135"/>
+      <c r="AI5" s="135"/>
+      <c r="AJ5" s="135"/>
+      <c r="AK5" s="135"/>
+      <c r="AL5" s="135"/>
+      <c r="AM5" s="135"/>
+      <c r="AN5" s="135"/>
+      <c r="AO5" s="135"/>
+      <c r="AP5" s="135"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="AT5" s="171"/>
-      <c r="AU5" s="171"/>
-      <c r="AV5" s="171"/>
-      <c r="AW5" s="171"/>
-      <c r="AX5" s="171"/>
-      <c r="AY5" s="171"/>
-      <c r="AZ5" s="172"/>
-      <c r="BA5" s="145"/>
+      <c r="AT5" s="150"/>
+      <c r="AU5" s="150"/>
+      <c r="AV5" s="150"/>
+      <c r="AW5" s="150"/>
+      <c r="AX5" s="150"/>
+      <c r="AY5" s="150"/>
+      <c r="AZ5" s="151"/>
+      <c r="BA5" s="110"/>
       <c r="BE5" s="83"/>
     </row>
-    <row r="6" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="159"/>
-      <c r="U6" s="159"/>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="159"/>
-      <c r="Z6" s="159"/>
-      <c r="AA6" s="159"/>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="159"/>
-      <c r="AD6" s="159"/>
-      <c r="AE6" s="159"/>
-      <c r="AF6" s="159"/>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="159"/>
-      <c r="AI6" s="159"/>
-      <c r="AJ6" s="159"/>
-      <c r="AK6" s="159"/>
-      <c r="AL6" s="159"/>
-      <c r="AM6" s="159"/>
-      <c r="AN6" s="159"/>
-      <c r="AO6" s="159"/>
-      <c r="AP6" s="159"/>
-      <c r="AQ6" s="160"/>
-      <c r="AR6" s="136"/>
-      <c r="AS6" s="173"/>
-      <c r="AT6" s="174"/>
-      <c r="AU6" s="174"/>
-      <c r="AV6" s="174"/>
-      <c r="AW6" s="174"/>
-      <c r="AX6" s="174"/>
-      <c r="AY6" s="174"/>
-      <c r="AZ6" s="175"/>
-      <c r="BA6" s="145"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="138"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="138"/>
+      <c r="W6" s="138"/>
+      <c r="X6" s="138"/>
+      <c r="Y6" s="138"/>
+      <c r="Z6" s="138"/>
+      <c r="AA6" s="138"/>
+      <c r="AB6" s="138"/>
+      <c r="AC6" s="138"/>
+      <c r="AD6" s="138"/>
+      <c r="AE6" s="138"/>
+      <c r="AF6" s="138"/>
+      <c r="AG6" s="138"/>
+      <c r="AH6" s="138"/>
+      <c r="AI6" s="138"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="138"/>
+      <c r="AL6" s="138"/>
+      <c r="AM6" s="138"/>
+      <c r="AN6" s="138"/>
+      <c r="AO6" s="138"/>
+      <c r="AP6" s="138"/>
+      <c r="AQ6" s="139"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="152"/>
+      <c r="AT6" s="153"/>
+      <c r="AU6" s="153"/>
+      <c r="AV6" s="153"/>
+      <c r="AW6" s="153"/>
+      <c r="AX6" s="153"/>
+      <c r="AY6" s="153"/>
+      <c r="AZ6" s="154"/>
+      <c r="BA6" s="110"/>
       <c r="BE6" s="83"/>
     </row>
-    <row r="7" spans="1:57" s="65" customFormat="1" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="144"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="100"/>
-      <c r="D7" s="179" t="s">
+      <c r="D7" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="180" t="str">
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="103" t="str">
         <f>"18/02/2025"</f>
         <v>18/02/2025</v>
       </c>
-      <c r="J7" s="181"/>
+      <c r="J7" s="104"/>
       <c r="K7" s="101"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="162"/>
-      <c r="R7" s="162"/>
-      <c r="S7" s="162"/>
-      <c r="T7" s="162"/>
-      <c r="U7" s="162"/>
-      <c r="V7" s="162"/>
-      <c r="W7" s="162"/>
-      <c r="X7" s="162"/>
-      <c r="Y7" s="162"/>
-      <c r="Z7" s="162"/>
-      <c r="AA7" s="162"/>
-      <c r="AB7" s="162"/>
-      <c r="AC7" s="162"/>
-      <c r="AD7" s="162"/>
-      <c r="AE7" s="162"/>
-      <c r="AF7" s="162"/>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="162"/>
-      <c r="AI7" s="162"/>
-      <c r="AJ7" s="162"/>
-      <c r="AK7" s="162"/>
-      <c r="AL7" s="162"/>
-      <c r="AM7" s="162"/>
-      <c r="AN7" s="162"/>
-      <c r="AO7" s="162"/>
-      <c r="AP7" s="162"/>
-      <c r="AQ7" s="163"/>
-      <c r="AR7" s="136"/>
-      <c r="AS7" s="176"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177"/>
-      <c r="AZ7" s="178"/>
-      <c r="BA7" s="145"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="141"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="141"/>
+      <c r="W7" s="141"/>
+      <c r="X7" s="141"/>
+      <c r="Y7" s="141"/>
+      <c r="Z7" s="141"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
+      <c r="AD7" s="141"/>
+      <c r="AE7" s="141"/>
+      <c r="AF7" s="141"/>
+      <c r="AG7" s="141"/>
+      <c r="AH7" s="141"/>
+      <c r="AI7" s="141"/>
+      <c r="AJ7" s="141"/>
+      <c r="AK7" s="141"/>
+      <c r="AL7" s="141"/>
+      <c r="AM7" s="141"/>
+      <c r="AN7" s="141"/>
+      <c r="AO7" s="141"/>
+      <c r="AP7" s="141"/>
+      <c r="AQ7" s="142"/>
+      <c r="AR7" s="108"/>
+      <c r="AS7" s="155"/>
+      <c r="AT7" s="156"/>
+      <c r="AU7" s="156"/>
+      <c r="AV7" s="156"/>
+      <c r="AW7" s="156"/>
+      <c r="AX7" s="156"/>
+      <c r="AY7" s="156"/>
+      <c r="AZ7" s="157"/>
+      <c r="BA7" s="110"/>
       <c r="BE7" s="83"/>
     </row>
-    <row r="8" spans="1:57" s="65" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" s="65" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="144"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="136"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="108"/>
       <c r="M8" s="75"/>
       <c r="N8" s="75"/>
       <c r="O8" s="75"/>
@@ -3180,7 +3180,7 @@
       <c r="AO8" s="75"/>
       <c r="AP8" s="75"/>
       <c r="AQ8" s="75"/>
-      <c r="AR8" s="136"/>
+      <c r="AR8" s="108"/>
       <c r="AS8" s="75"/>
       <c r="AT8" s="75"/>
       <c r="AU8" s="75"/>
@@ -3189,24 +3189,24 @@
       <c r="AX8" s="75"/>
       <c r="AY8" s="75"/>
       <c r="AZ8" s="29"/>
-      <c r="BA8" s="145"/>
+      <c r="BA8" s="110"/>
       <c r="BE8" s="83"/>
     </row>
-    <row r="9" spans="1:57" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:57" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="144"/>
+      <c r="B9" s="124"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
       <c r="F9" s="79"/>
       <c r="G9" s="78"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
       <c r="K9" s="75"/>
-      <c r="L9" s="136"/>
+      <c r="L9" s="108"/>
       <c r="M9" s="75"/>
       <c r="N9" s="75"/>
       <c r="O9" s="75"/>
@@ -3238,7 +3238,7 @@
       <c r="AO9" s="75"/>
       <c r="AP9" s="75"/>
       <c r="AQ9" s="75"/>
-      <c r="AR9" s="136"/>
+      <c r="AR9" s="108"/>
       <c r="AS9" s="75"/>
       <c r="AT9" s="75"/>
       <c r="AU9" s="75"/>
@@ -3247,14 +3247,14 @@
       <c r="AX9" s="75"/>
       <c r="AY9" s="75"/>
       <c r="AZ9" s="29"/>
-      <c r="BA9" s="145"/>
+      <c r="BA9" s="110"/>
       <c r="BE9" s="83"/>
     </row>
-    <row r="10" spans="1:57" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="144"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="30"/>
       <c r="D10" s="75"/>
       <c r="E10" s="78"/>
@@ -3264,7 +3264,7 @@
       <c r="I10" s="75"/>
       <c r="J10" s="75"/>
       <c r="K10" s="75"/>
-      <c r="L10" s="136"/>
+      <c r="L10" s="108"/>
       <c r="M10" s="75"/>
       <c r="N10" s="75"/>
       <c r="O10" s="75"/>
@@ -3296,7 +3296,7 @@
       <c r="AO10" s="75"/>
       <c r="AP10" s="75"/>
       <c r="AQ10" s="75"/>
-      <c r="AR10" s="136"/>
+      <c r="AR10" s="108"/>
       <c r="AS10" s="75"/>
       <c r="AT10" s="75"/>
       <c r="AU10" s="75"/>
@@ -3305,14 +3305,14 @@
       <c r="AX10" s="75"/>
       <c r="AY10" s="75"/>
       <c r="AZ10" s="29"/>
-      <c r="BA10" s="145"/>
+      <c r="BA10" s="110"/>
       <c r="BE10" s="83"/>
     </row>
-    <row r="11" spans="1:57" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="144"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="30"/>
       <c r="D11" s="75"/>
       <c r="E11" s="78"/>
@@ -3322,65 +3322,65 @@
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
       <c r="K11" s="75"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="106" t="s">
+      <c r="L11" s="108"/>
+      <c r="M11" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="107"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="160"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="105" t="s">
+      <c r="U11" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="107"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="159"/>
+      <c r="X11" s="159"/>
+      <c r="Y11" s="160"/>
       <c r="Z11" s="75"/>
-      <c r="AA11" s="105" t="s">
+      <c r="AA11" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="107"/>
+      <c r="AB11" s="159"/>
+      <c r="AC11" s="159"/>
+      <c r="AD11" s="159"/>
+      <c r="AE11" s="160"/>
       <c r="AF11" s="75"/>
-      <c r="AG11" s="105" t="s">
+      <c r="AG11" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="106"/>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="107"/>
+      <c r="AH11" s="159"/>
+      <c r="AI11" s="159"/>
+      <c r="AJ11" s="159"/>
+      <c r="AK11" s="160"/>
       <c r="AL11" s="75"/>
       <c r="AM11" s="75"/>
       <c r="AN11" s="75"/>
       <c r="AO11" s="75"/>
       <c r="AP11" s="75"/>
       <c r="AQ11" s="75"/>
-      <c r="AR11" s="136"/>
+      <c r="AR11" s="108"/>
       <c r="AS11" s="75"/>
-      <c r="AT11" s="105" t="s">
+      <c r="AT11" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="AU11" s="106"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="106"/>
-      <c r="AY11" s="107"/>
+      <c r="AU11" s="159"/>
+      <c r="AV11" s="159"/>
+      <c r="AW11" s="159"/>
+      <c r="AX11" s="159"/>
+      <c r="AY11" s="160"/>
       <c r="AZ11" s="29"/>
-      <c r="BA11" s="145"/>
+      <c r="BA11" s="110"/>
       <c r="BE11" s="83"/>
     </row>
-    <row r="12" spans="1:57" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="144"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="30"/>
       <c r="D12" s="75"/>
       <c r="E12" s="78"/>
@@ -3390,159 +3390,159 @@
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
       <c r="K12" s="75"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="110"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="163"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="110"/>
+      <c r="U12" s="161"/>
+      <c r="V12" s="162"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="163"/>
       <c r="Z12" s="75"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="110"/>
+      <c r="AA12" s="161"/>
+      <c r="AB12" s="162"/>
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="163"/>
       <c r="AF12" s="75"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="109"/>
-      <c r="AK12" s="110"/>
+      <c r="AG12" s="161"/>
+      <c r="AH12" s="162"/>
+      <c r="AI12" s="162"/>
+      <c r="AJ12" s="162"/>
+      <c r="AK12" s="163"/>
       <c r="AL12" s="75"/>
       <c r="AM12" s="75"/>
       <c r="AN12" s="75"/>
       <c r="AO12" s="75"/>
       <c r="AP12" s="75"/>
       <c r="AQ12" s="75"/>
-      <c r="AR12" s="136"/>
+      <c r="AR12" s="108"/>
       <c r="AS12" s="75"/>
-      <c r="AT12" s="108"/>
-      <c r="AU12" s="109"/>
-      <c r="AV12" s="109"/>
-      <c r="AW12" s="109"/>
-      <c r="AX12" s="109"/>
-      <c r="AY12" s="110"/>
+      <c r="AT12" s="161"/>
+      <c r="AU12" s="162"/>
+      <c r="AV12" s="162"/>
+      <c r="AW12" s="162"/>
+      <c r="AX12" s="162"/>
+      <c r="AY12" s="163"/>
       <c r="AZ12" s="29"/>
-      <c r="BA12" s="145"/>
+      <c r="BA12" s="110"/>
       <c r="BE12" s="83"/>
     </row>
-    <row r="13" spans="1:57" s="65" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" s="65" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="144"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="129"/>
+      <c r="E13" s="175"/>
       <c r="F13" s="79"/>
       <c r="G13" s="78"/>
-      <c r="H13" s="127" t="s">
+      <c r="H13" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="128"/>
-      <c r="J13" s="129"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175"/>
       <c r="K13" s="75"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="113"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="165"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="165"/>
+      <c r="S13" s="166"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="113"/>
+      <c r="U13" s="164"/>
+      <c r="V13" s="165"/>
+      <c r="W13" s="165"/>
+      <c r="X13" s="165"/>
+      <c r="Y13" s="166"/>
       <c r="Z13" s="75"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="112"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="112"/>
-      <c r="AE13" s="113"/>
+      <c r="AA13" s="164"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="165"/>
+      <c r="AD13" s="165"/>
+      <c r="AE13" s="166"/>
       <c r="AF13" s="75"/>
-      <c r="AG13" s="111"/>
-      <c r="AH13" s="112"/>
-      <c r="AI13" s="112"/>
-      <c r="AJ13" s="112"/>
-      <c r="AK13" s="113"/>
+      <c r="AG13" s="164"/>
+      <c r="AH13" s="165"/>
+      <c r="AI13" s="165"/>
+      <c r="AJ13" s="165"/>
+      <c r="AK13" s="166"/>
       <c r="AL13" s="75"/>
       <c r="AM13" s="75"/>
       <c r="AN13" s="75"/>
       <c r="AO13" s="75"/>
       <c r="AP13" s="75"/>
       <c r="AQ13" s="75"/>
-      <c r="AR13" s="136"/>
+      <c r="AR13" s="108"/>
       <c r="AS13" s="75"/>
-      <c r="AT13" s="111"/>
-      <c r="AU13" s="112"/>
-      <c r="AV13" s="112"/>
-      <c r="AW13" s="112"/>
-      <c r="AX13" s="112"/>
-      <c r="AY13" s="113"/>
+      <c r="AT13" s="164"/>
+      <c r="AU13" s="165"/>
+      <c r="AV13" s="165"/>
+      <c r="AW13" s="165"/>
+      <c r="AX13" s="165"/>
+      <c r="AY13" s="166"/>
       <c r="AZ13" s="29"/>
-      <c r="BA13" s="145"/>
+      <c r="BA13" s="110"/>
       <c r="BE13" s="83"/>
     </row>
-    <row r="14" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="144"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="133"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="179"/>
       <c r="F14" s="79"/>
       <c r="G14" s="78"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="178"/>
       <c r="K14" s="75"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="116"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="113"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="116"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="112"/>
+      <c r="W14" s="112"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="113"/>
       <c r="Z14" s="75"/>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="115"/>
-      <c r="AC14" s="115"/>
-      <c r="AD14" s="115"/>
-      <c r="AE14" s="116"/>
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="112"/>
+      <c r="AC14" s="112"/>
+      <c r="AD14" s="112"/>
+      <c r="AE14" s="113"/>
       <c r="AF14" s="75"/>
-      <c r="AG14" s="114"/>
-      <c r="AH14" s="115"/>
-      <c r="AI14" s="115"/>
-      <c r="AJ14" s="115"/>
-      <c r="AK14" s="116"/>
+      <c r="AG14" s="111"/>
+      <c r="AH14" s="112"/>
+      <c r="AI14" s="112"/>
+      <c r="AJ14" s="112"/>
+      <c r="AK14" s="113"/>
       <c r="AL14" s="75"/>
       <c r="AM14" s="75"/>
       <c r="AN14" s="75"/>
       <c r="AO14" s="75"/>
       <c r="AP14" s="75"/>
       <c r="AQ14" s="75"/>
-      <c r="AR14" s="136"/>
+      <c r="AR14" s="108"/>
       <c r="AS14" s="75"/>
       <c r="AT14" s="91"/>
       <c r="AU14" s="92"/>
@@ -3551,14 +3551,14 @@
       <c r="AX14" s="92"/>
       <c r="AY14" s="93"/>
       <c r="AZ14" s="29"/>
-      <c r="BA14" s="145"/>
+      <c r="BA14" s="110"/>
       <c r="BE14" s="83"/>
     </row>
-    <row r="15" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="144"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="30"/>
       <c r="D15" s="48" t="s">
         <v>24</v>
@@ -3579,17 +3579,17 @@
         <v>25</v>
       </c>
       <c r="K15" s="75"/>
-      <c r="L15" s="136"/>
+      <c r="L15" s="108"/>
       <c r="M15" s="117"/>
       <c r="N15" s="85"/>
       <c r="O15" s="85"/>
       <c r="P15" s="12">
         <v>4</v>
       </c>
-      <c r="Q15" s="139" t="s">
+      <c r="Q15" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="140"/>
+      <c r="R15" s="183"/>
       <c r="S15" s="117"/>
       <c r="T15" s="75"/>
       <c r="U15" s="117"/>
@@ -3619,7 +3619,7 @@
       <c r="AI15" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AJ15" s="141"/>
+      <c r="AJ15" s="121"/>
       <c r="AK15" s="117"/>
       <c r="AL15" s="75"/>
       <c r="AM15" s="75"/>
@@ -3627,7 +3627,7 @@
       <c r="AO15" s="75"/>
       <c r="AP15" s="75"/>
       <c r="AQ15" s="75"/>
-      <c r="AR15" s="136"/>
+      <c r="AR15" s="108"/>
       <c r="AS15" s="75"/>
       <c r="AT15" s="94"/>
       <c r="AU15" s="2">
@@ -3640,14 +3640,14 @@
       <c r="AX15" s="61"/>
       <c r="AY15" s="94"/>
       <c r="AZ15" s="29"/>
-      <c r="BA15" s="145"/>
+      <c r="BA15" s="110"/>
       <c r="BE15" s="83"/>
     </row>
-    <row r="16" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="144"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="30"/>
       <c r="D16" s="49" t="s">
         <v>28</v>
@@ -3668,7 +3668,7 @@
         <v>29</v>
       </c>
       <c r="K16" s="75"/>
-      <c r="L16" s="136"/>
+      <c r="L16" s="108"/>
       <c r="M16" s="118"/>
       <c r="N16" s="85"/>
       <c r="O16" s="85">
@@ -3727,7 +3727,7 @@
       <c r="AO16" s="75"/>
       <c r="AP16" s="75"/>
       <c r="AQ16" s="75"/>
-      <c r="AR16" s="136"/>
+      <c r="AR16" s="108"/>
       <c r="AS16" s="75"/>
       <c r="AT16" s="95"/>
       <c r="AU16" s="1" t="s">
@@ -3744,14 +3744,14 @@
       </c>
       <c r="AY16" s="95"/>
       <c r="AZ16" s="29"/>
-      <c r="BA16" s="145"/>
+      <c r="BA16" s="110"/>
       <c r="BE16" s="83"/>
     </row>
-    <row r="17" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="144"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="30"/>
       <c r="D17" s="49" t="s">
         <v>35</v>
@@ -3772,7 +3772,7 @@
         <v>36</v>
       </c>
       <c r="K17" s="75"/>
-      <c r="L17" s="136"/>
+      <c r="L17" s="108"/>
       <c r="M17" s="118"/>
       <c r="N17" s="85" t="str">
         <f t="shared" ref="N17:N48" si="0">IF(E15=2,D15 &amp; "  [DQ]",D15)</f>
@@ -3782,7 +3782,7 @@
         <f t="shared" ref="O17:O48" si="1">IF(E15&gt;=1,ROW()-$O$16,"")</f>
         <v>1</v>
       </c>
-      <c r="P17" s="102" t="s">
+      <c r="P17" s="114" t="s">
         <v>37</v>
       </c>
       <c r="Q17" s="7" t="str" cm="1">
@@ -3795,7 +3795,7 @@
       <c r="S17" s="118"/>
       <c r="T17" s="75"/>
       <c r="U17" s="118"/>
-      <c r="V17" s="102" t="s">
+      <c r="V17" s="114" t="s">
         <v>38</v>
       </c>
       <c r="W17" s="7" t="str">
@@ -3808,7 +3808,7 @@
       <c r="Y17" s="118"/>
       <c r="Z17" s="75"/>
       <c r="AA17" s="118"/>
-      <c r="AB17" s="102" t="s">
+      <c r="AB17" s="114" t="s">
         <v>39</v>
       </c>
       <c r="AC17" s="7" t="str">
@@ -3821,7 +3821,7 @@
       <c r="AE17" s="118"/>
       <c r="AF17" s="75"/>
       <c r="AG17" s="118"/>
-      <c r="AH17" s="102" t="s">
+      <c r="AH17" s="114" t="s">
         <v>41</v>
       </c>
       <c r="AI17" s="7" t="str">
@@ -3838,10 +3838,10 @@
       <c r="AO17" s="75"/>
       <c r="AP17" s="75"/>
       <c r="AQ17" s="75"/>
-      <c r="AR17" s="136"/>
+      <c r="AR17" s="108"/>
       <c r="AS17" s="75"/>
       <c r="AT17" s="95"/>
-      <c r="AU17" s="164" t="s">
+      <c r="AU17" s="143" t="s">
         <v>42</v>
       </c>
       <c r="AV17" s="13" t="str">
@@ -3856,14 +3856,14 @@
       </c>
       <c r="AY17" s="58"/>
       <c r="AZ17" s="29"/>
-      <c r="BA17" s="145"/>
+      <c r="BA17" s="110"/>
       <c r="BE17" s="83"/>
     </row>
-    <row r="18" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="144"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="31"/>
       <c r="D18" s="49">
         <v>1</v>
@@ -3884,7 +3884,7 @@
         <v>44</v>
       </c>
       <c r="K18" s="75"/>
-      <c r="L18" s="136"/>
+      <c r="L18" s="108"/>
       <c r="M18" s="118"/>
       <c r="N18" s="85" t="str">
         <f t="shared" si="0"/>
@@ -3894,7 +3894,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P18" s="103"/>
+      <c r="P18" s="115"/>
       <c r="Q18" s="8" t="str" cm="1">
         <f t="array" ref="Q18">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B9))),"-")</f>
         <v>Coflo</v>
@@ -3905,7 +3905,7 @@
       <c r="S18" s="118"/>
       <c r="T18" s="75"/>
       <c r="U18" s="118"/>
-      <c r="V18" s="103"/>
+      <c r="V18" s="115"/>
       <c r="W18" s="8" t="str">
         <f>IF(ISBLANK($R$33),"E1",$R$33)</f>
         <v>Kassys</v>
@@ -3916,7 +3916,7 @@
       <c r="Y18" s="118"/>
       <c r="Z18" s="75"/>
       <c r="AA18" s="118"/>
-      <c r="AB18" s="103"/>
+      <c r="AB18" s="115"/>
       <c r="AC18" s="8" t="str">
         <f>IF(ISBLANK($X$25),"K1",$X$25)</f>
         <v>rouxblart</v>
@@ -3927,7 +3927,7 @@
       <c r="AE18" s="118"/>
       <c r="AF18" s="75"/>
       <c r="AG18" s="118"/>
-      <c r="AH18" s="103"/>
+      <c r="AH18" s="115"/>
       <c r="AI18" s="8" t="str">
         <f>IF(ISBLANK($AD$21),"N1",$AD$21)</f>
         <v>Bastien</v>
@@ -3942,10 +3942,10 @@
       <c r="AO18" s="75"/>
       <c r="AP18" s="75"/>
       <c r="AQ18" s="75"/>
-      <c r="AR18" s="136"/>
+      <c r="AR18" s="108"/>
       <c r="AS18" s="75"/>
       <c r="AT18" s="95"/>
-      <c r="AU18" s="165"/>
+      <c r="AU18" s="144"/>
       <c r="AV18" s="14" t="str">
         <f>IF(ISBLANK($AJ$18),"WF2",$AJ$18)</f>
         <v>Batefimbi</v>
@@ -3958,14 +3958,14 @@
       </c>
       <c r="AY18" s="58"/>
       <c r="AZ18" s="29"/>
-      <c r="BA18" s="145"/>
+      <c r="BA18" s="110"/>
       <c r="BE18" s="83"/>
     </row>
-    <row r="19" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="144"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="31"/>
       <c r="D19" s="49" t="s">
         <v>47</v>
@@ -3986,7 +3986,7 @@
         <v>48</v>
       </c>
       <c r="K19" s="75"/>
-      <c r="L19" s="136"/>
+      <c r="L19" s="108"/>
       <c r="M19" s="118"/>
       <c r="N19" s="85" t="str">
         <f t="shared" si="0"/>
@@ -3996,7 +3996,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P19" s="103"/>
+      <c r="P19" s="115"/>
       <c r="Q19" s="8" t="str" cm="1">
         <f t="array" ref="Q19">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B17))),"-")</f>
         <v>LeCed</v>
@@ -4007,7 +4007,7 @@
       <c r="S19" s="118"/>
       <c r="T19" s="75"/>
       <c r="U19" s="118"/>
-      <c r="V19" s="103"/>
+      <c r="V19" s="115"/>
       <c r="W19" s="9" t="str">
         <f>IF(ISBLANK($R$22),"B2",$R$22)</f>
         <v>Batefimbi</v>
@@ -4018,7 +4018,7 @@
       <c r="Y19" s="118"/>
       <c r="Z19" s="75"/>
       <c r="AA19" s="118"/>
-      <c r="AB19" s="103"/>
+      <c r="AB19" s="115"/>
       <c r="AC19" s="8" t="str">
         <f>IF(ISBLANK($X$22),"J2",$X$22)</f>
         <v>Arthur</v>
@@ -4029,7 +4029,7 @@
       <c r="AE19" s="118"/>
       <c r="AF19" s="75"/>
       <c r="AG19" s="118"/>
-      <c r="AH19" s="103"/>
+      <c r="AH19" s="115"/>
       <c r="AI19" s="8" t="str">
         <f>IF(ISBLANK($AD$18),"M2",$AD$18)</f>
         <v>Staaany</v>
@@ -4044,10 +4044,10 @@
       <c r="AO19" s="75"/>
       <c r="AP19" s="75"/>
       <c r="AQ19" s="75"/>
-      <c r="AR19" s="136"/>
+      <c r="AR19" s="108"/>
       <c r="AS19" s="75"/>
       <c r="AT19" s="95"/>
-      <c r="AU19" s="165"/>
+      <c r="AU19" s="144"/>
       <c r="AV19" s="14" t="str">
         <f>IF(ISBLANK($AP$63),"LF1",$AP$63)</f>
         <v>GoGu</v>
@@ -4060,14 +4060,14 @@
       </c>
       <c r="AY19" s="58"/>
       <c r="AZ19" s="29"/>
-      <c r="BA19" s="145"/>
+      <c r="BA19" s="110"/>
       <c r="BE19" s="83"/>
     </row>
-    <row r="20" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="144"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="31"/>
       <c r="D20" s="49" t="s">
         <v>50</v>
@@ -4088,7 +4088,7 @@
         <v>53</v>
       </c>
       <c r="K20" s="75"/>
-      <c r="L20" s="136"/>
+      <c r="L20" s="108"/>
       <c r="M20" s="118"/>
       <c r="N20" s="85" t="str">
         <f t="shared" ref="N20:N46" si="2">IF(E18=2,D19 &amp; "  [DQ]",D19)</f>
@@ -4098,7 +4098,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P20" s="104"/>
+      <c r="P20" s="116"/>
       <c r="Q20" s="9" t="str" cm="1">
         <f t="array" ref="Q20">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B25))),"-")</f>
         <v>Leas</v>
@@ -4109,7 +4109,7 @@
       <c r="S20" s="118"/>
       <c r="T20" s="75"/>
       <c r="U20" s="118"/>
-      <c r="V20" s="104"/>
+      <c r="V20" s="116"/>
       <c r="W20" s="9" t="str">
         <f>IF(ISBLANK($R$38),"F2",$R$38)</f>
         <v>TheDude</v>
@@ -4120,7 +4120,7 @@
       <c r="Y20" s="118"/>
       <c r="Z20" s="75"/>
       <c r="AA20" s="118"/>
-      <c r="AB20" s="104"/>
+      <c r="AB20" s="116"/>
       <c r="AC20" s="9" t="str">
         <f>IF(ISBLANK($X$30),"L2",$X$30)</f>
         <v>Charasime</v>
@@ -4131,7 +4131,7 @@
       <c r="AE20" s="118"/>
       <c r="AF20" s="75"/>
       <c r="AG20" s="119"/>
-      <c r="AH20" s="104"/>
+      <c r="AH20" s="116"/>
       <c r="AI20" s="9" t="str">
         <f>IF(ISBLANK($AD$22),"N2",$AD$22)</f>
         <v>Batefimbi</v>
@@ -4146,10 +4146,10 @@
       <c r="AO20" s="75"/>
       <c r="AP20" s="75"/>
       <c r="AQ20" s="75"/>
-      <c r="AR20" s="136"/>
+      <c r="AR20" s="108"/>
       <c r="AS20" s="75"/>
       <c r="AT20" s="96"/>
-      <c r="AU20" s="166"/>
+      <c r="AU20" s="145"/>
       <c r="AV20" s="15" t="str">
         <f>IF(ISBLANK($AP$64),"LF2",$AP$64)</f>
         <v>Kassys</v>
@@ -4162,14 +4162,14 @@
       </c>
       <c r="AY20" s="59"/>
       <c r="AZ20" s="29"/>
-      <c r="BA20" s="145"/>
+      <c r="BA20" s="110"/>
       <c r="BE20" s="83"/>
     </row>
-    <row r="21" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="144"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="31"/>
       <c r="D21" s="49" t="s">
         <v>58</v>
@@ -4180,7 +4180,7 @@
       <c r="F21" s="79"/>
       <c r="G21" s="79"/>
       <c r="H21" s="46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I21" s="19" t="str">
         <f>IF(ISBLANK(AW33),"TBD",AW33)</f>
@@ -4190,7 +4190,7 @@
         <v>59</v>
       </c>
       <c r="K21" s="75"/>
-      <c r="L21" s="136"/>
+      <c r="L21" s="108"/>
       <c r="M21" s="118"/>
       <c r="N21" s="85" t="str">
         <f t="shared" si="2"/>
@@ -4200,7 +4200,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P21" s="102" t="s">
+      <c r="P21" s="114" t="s">
         <v>60</v>
       </c>
       <c r="Q21" s="7" t="str" cm="1">
@@ -4213,7 +4213,7 @@
       <c r="S21" s="118"/>
       <c r="T21" s="75"/>
       <c r="U21" s="118"/>
-      <c r="V21" s="102" t="s">
+      <c r="V21" s="114" t="s">
         <v>61</v>
       </c>
       <c r="W21" s="9" t="str">
@@ -4226,7 +4226,7 @@
       <c r="Y21" s="118"/>
       <c r="Z21" s="75"/>
       <c r="AA21" s="118"/>
-      <c r="AB21" s="102" t="s">
+      <c r="AB21" s="114" t="s">
         <v>62</v>
       </c>
       <c r="AC21" s="8" t="str">
@@ -4238,18 +4238,18 @@
       </c>
       <c r="AE21" s="118"/>
       <c r="AF21" s="75"/>
-      <c r="AG21" s="114"/>
-      <c r="AH21" s="115"/>
-      <c r="AI21" s="115"/>
-      <c r="AJ21" s="115"/>
-      <c r="AK21" s="116"/>
+      <c r="AG21" s="111"/>
+      <c r="AH21" s="112"/>
+      <c r="AI21" s="112"/>
+      <c r="AJ21" s="112"/>
+      <c r="AK21" s="113"/>
       <c r="AL21" s="75"/>
       <c r="AM21" s="75"/>
       <c r="AN21" s="75"/>
       <c r="AO21" s="75"/>
       <c r="AP21" s="75"/>
       <c r="AQ21" s="75"/>
-      <c r="AR21" s="136"/>
+      <c r="AR21" s="108"/>
       <c r="AS21" s="75"/>
       <c r="AT21" s="91"/>
       <c r="AU21" s="92"/>
@@ -4258,14 +4258,14 @@
       <c r="AX21" s="99"/>
       <c r="AY21" s="93"/>
       <c r="AZ21" s="29"/>
-      <c r="BA21" s="145"/>
+      <c r="BA21" s="110"/>
       <c r="BE21" s="83"/>
     </row>
-    <row r="22" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="144"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="31"/>
       <c r="D22" s="49" t="s">
         <v>64</v>
@@ -4276,7 +4276,7 @@
       <c r="F22" s="79"/>
       <c r="G22" s="79"/>
       <c r="H22" s="46" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="I22" s="19" t="str">
         <f>IF(ISBLANK(AW34),"TBD",AW34)</f>
@@ -4286,7 +4286,7 @@
         <v>65</v>
       </c>
       <c r="K22" s="75"/>
-      <c r="L22" s="136"/>
+      <c r="L22" s="108"/>
       <c r="M22" s="118"/>
       <c r="N22" s="85" t="str">
         <f t="shared" si="2"/>
@@ -4296,7 +4296,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P22" s="103"/>
+      <c r="P22" s="115"/>
       <c r="Q22" s="8" t="str" cm="1">
         <f t="array" ref="Q22">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B10))),"-")</f>
         <v>Arthur</v>
@@ -4307,7 +4307,7 @@
       <c r="S22" s="118"/>
       <c r="T22" s="75"/>
       <c r="U22" s="118"/>
-      <c r="V22" s="103"/>
+      <c r="V22" s="115"/>
       <c r="W22" s="9" t="str">
         <f>IF(ISBLANK($R$37),"F1",$R$37)</f>
         <v>Bastian</v>
@@ -4318,7 +4318,7 @@
       <c r="Y22" s="118"/>
       <c r="Z22" s="75"/>
       <c r="AA22" s="118"/>
-      <c r="AB22" s="103"/>
+      <c r="AB22" s="115"/>
       <c r="AC22" s="8" t="str">
         <f>IF(ISBLANK($X$29),"L1",$X$29)</f>
         <v>Bastien</v>
@@ -4339,7 +4339,7 @@
       <c r="AO22" s="75"/>
       <c r="AP22" s="75"/>
       <c r="AQ22" s="75"/>
-      <c r="AR22" s="136"/>
+      <c r="AR22" s="108"/>
       <c r="AS22" s="75"/>
       <c r="AT22" s="75"/>
       <c r="AU22" s="75"/>
@@ -4348,14 +4348,14 @@
       <c r="AX22" s="75"/>
       <c r="AY22" s="75"/>
       <c r="AZ22" s="29"/>
-      <c r="BA22" s="145"/>
+      <c r="BA22" s="110"/>
       <c r="BE22" s="83"/>
     </row>
-    <row r="23" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="144"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="31"/>
       <c r="D23" s="49" t="s">
         <v>67</v>
@@ -4376,7 +4376,7 @@
         <v>68</v>
       </c>
       <c r="K23" s="75"/>
-      <c r="L23" s="136"/>
+      <c r="L23" s="108"/>
       <c r="M23" s="118"/>
       <c r="N23" s="85" t="str">
         <f t="shared" si="2"/>
@@ -4386,7 +4386,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P23" s="103"/>
+      <c r="P23" s="115"/>
       <c r="Q23" s="8" t="str" cm="1">
         <f t="array" ref="Q23">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B18))),"-")</f>
         <v>Antho</v>
@@ -4397,7 +4397,7 @@
       <c r="S23" s="118"/>
       <c r="T23" s="75"/>
       <c r="U23" s="118"/>
-      <c r="V23" s="103"/>
+      <c r="V23" s="115"/>
       <c r="W23" s="8" t="str">
         <f>IF(ISBLANK($R$26),"C2",$R$26)</f>
         <v>GoGu</v>
@@ -4408,7 +4408,7 @@
       <c r="Y23" s="118"/>
       <c r="Z23" s="75"/>
       <c r="AA23" s="118"/>
-      <c r="AB23" s="103"/>
+      <c r="AB23" s="115"/>
       <c r="AC23" s="8" t="str">
         <f>IF(ISBLANK($X$18),"I2",$X$18)</f>
         <v>Batefimbi</v>
@@ -4429,7 +4429,7 @@
       <c r="AO23" s="75"/>
       <c r="AP23" s="75"/>
       <c r="AQ23" s="75"/>
-      <c r="AR23" s="136"/>
+      <c r="AR23" s="108"/>
       <c r="AS23" s="75"/>
       <c r="AT23" s="75"/>
       <c r="AU23" s="75"/>
@@ -4438,14 +4438,14 @@
       <c r="AX23" s="75"/>
       <c r="AY23" s="75"/>
       <c r="AZ23" s="29"/>
-      <c r="BA23" s="145"/>
+      <c r="BA23" s="110"/>
       <c r="BE23" s="83"/>
     </row>
-    <row r="24" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="144"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="31"/>
       <c r="D24" s="49" t="s">
         <v>49</v>
@@ -4466,7 +4466,7 @@
         <v>68</v>
       </c>
       <c r="K24" s="75"/>
-      <c r="L24" s="136"/>
+      <c r="L24" s="108"/>
       <c r="M24" s="118"/>
       <c r="N24" s="85" t="str">
         <f t="shared" si="2"/>
@@ -4476,7 +4476,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P24" s="104"/>
+      <c r="P24" s="116"/>
       <c r="Q24" s="9" t="str" cm="1">
         <f t="array" ref="Q24">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B26))),"-")</f>
         <v>Qinmao</v>
@@ -4487,7 +4487,7 @@
       <c r="S24" s="118"/>
       <c r="T24" s="75"/>
       <c r="U24" s="118"/>
-      <c r="V24" s="104"/>
+      <c r="V24" s="116"/>
       <c r="W24" s="9" t="str">
         <f>IF(ISBLANK($R$42),"G2",$R$42)</f>
         <v>Clemclou</v>
@@ -4498,7 +4498,7 @@
       <c r="Y24" s="118"/>
       <c r="Z24" s="75"/>
       <c r="AA24" s="119"/>
-      <c r="AB24" s="104"/>
+      <c r="AB24" s="116"/>
       <c r="AC24" s="9" t="str">
         <f>IF(ISBLANK($X$26),"K2",$X$26)</f>
         <v>Mimolette</v>
@@ -4519,7 +4519,7 @@
       <c r="AO24" s="75"/>
       <c r="AP24" s="75"/>
       <c r="AQ24" s="75"/>
-      <c r="AR24" s="136"/>
+      <c r="AR24" s="108"/>
       <c r="AS24" s="75"/>
       <c r="AT24" s="75"/>
       <c r="AU24" s="75"/>
@@ -4528,14 +4528,14 @@
       <c r="AX24" s="75"/>
       <c r="AY24" s="75"/>
       <c r="AZ24" s="29"/>
-      <c r="BA24" s="145"/>
+      <c r="BA24" s="110"/>
       <c r="BE24" s="83"/>
     </row>
-    <row r="25" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="144"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="31"/>
       <c r="D25" s="49" t="s">
         <v>56</v>
@@ -4556,7 +4556,7 @@
         <v>74</v>
       </c>
       <c r="K25" s="75"/>
-      <c r="L25" s="136"/>
+      <c r="L25" s="108"/>
       <c r="M25" s="118"/>
       <c r="N25" s="85" t="str">
         <f t="shared" si="2"/>
@@ -4566,7 +4566,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P25" s="102" t="s">
+      <c r="P25" s="114" t="s">
         <v>75</v>
       </c>
       <c r="Q25" s="7" t="str" cm="1">
@@ -4579,7 +4579,7 @@
       <c r="S25" s="118"/>
       <c r="T25" s="75"/>
       <c r="U25" s="118"/>
-      <c r="V25" s="102" t="s">
+      <c r="V25" s="114" t="s">
         <v>76</v>
       </c>
       <c r="W25" s="8" t="str">
@@ -4608,25 +4608,25 @@
       <c r="AO25" s="75"/>
       <c r="AP25" s="75"/>
       <c r="AQ25" s="75"/>
-      <c r="AR25" s="136"/>
+      <c r="AR25" s="108"/>
       <c r="AS25" s="75"/>
-      <c r="AT25" s="105" t="s">
+      <c r="AT25" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="AU25" s="106"/>
-      <c r="AV25" s="106"/>
-      <c r="AW25" s="106"/>
-      <c r="AX25" s="106"/>
-      <c r="AY25" s="107"/>
+      <c r="AU25" s="159"/>
+      <c r="AV25" s="159"/>
+      <c r="AW25" s="159"/>
+      <c r="AX25" s="159"/>
+      <c r="AY25" s="160"/>
       <c r="AZ25" s="29"/>
-      <c r="BA25" s="145"/>
+      <c r="BA25" s="110"/>
       <c r="BE25" s="83"/>
     </row>
-    <row r="26" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="144"/>
+      <c r="B26" s="124"/>
       <c r="C26" s="31"/>
       <c r="D26" s="49" t="s">
         <v>79</v>
@@ -4647,7 +4647,7 @@
         <v>74</v>
       </c>
       <c r="K26" s="75"/>
-      <c r="L26" s="136"/>
+      <c r="L26" s="108"/>
       <c r="M26" s="118"/>
       <c r="N26" s="85" t="str">
         <f t="shared" si="2"/>
@@ -4657,7 +4657,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P26" s="103"/>
+      <c r="P26" s="115"/>
       <c r="Q26" s="9" t="str" cm="1">
         <f t="array" ref="Q26">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B11))),"-")</f>
         <v>Stravinsky</v>
@@ -4668,7 +4668,7 @@
       <c r="S26" s="118"/>
       <c r="T26" s="75"/>
       <c r="U26" s="118"/>
-      <c r="V26" s="103"/>
+      <c r="V26" s="115"/>
       <c r="W26" s="8" t="str">
         <f>IF(ISBLANK($R$41),"G1",$R$41)</f>
         <v>rouxblart</v>
@@ -4695,23 +4695,23 @@
       <c r="AO26" s="75"/>
       <c r="AP26" s="75"/>
       <c r="AQ26" s="75"/>
-      <c r="AR26" s="136"/>
+      <c r="AR26" s="108"/>
       <c r="AS26" s="75"/>
-      <c r="AT26" s="108"/>
-      <c r="AU26" s="109"/>
-      <c r="AV26" s="109"/>
-      <c r="AW26" s="109"/>
-      <c r="AX26" s="109"/>
-      <c r="AY26" s="110"/>
+      <c r="AT26" s="161"/>
+      <c r="AU26" s="162"/>
+      <c r="AV26" s="162"/>
+      <c r="AW26" s="162"/>
+      <c r="AX26" s="162"/>
+      <c r="AY26" s="163"/>
       <c r="AZ26" s="29"/>
-      <c r="BA26" s="145"/>
+      <c r="BA26" s="110"/>
       <c r="BE26" s="83"/>
     </row>
-    <row r="27" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="144"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="31"/>
       <c r="D27" s="49" t="s">
         <v>81</v>
@@ -4732,7 +4732,7 @@
         <v>74</v>
       </c>
       <c r="K27" s="75"/>
-      <c r="L27" s="136"/>
+      <c r="L27" s="108"/>
       <c r="M27" s="118"/>
       <c r="N27" s="85" t="str">
         <f t="shared" si="2"/>
@@ -4742,7 +4742,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P27" s="103"/>
+      <c r="P27" s="115"/>
       <c r="Q27" s="9" t="str" cm="1">
         <f t="array" ref="Q27">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B19))),"-")</f>
         <v>Znium</v>
@@ -4753,7 +4753,7 @@
       <c r="S27" s="118"/>
       <c r="T27" s="75"/>
       <c r="U27" s="118"/>
-      <c r="V27" s="103"/>
+      <c r="V27" s="115"/>
       <c r="W27" s="8" t="str">
         <f>IF(ISBLANK($R$30),"D2",$R$30)</f>
         <v>Canard</v>
@@ -4780,23 +4780,23 @@
       <c r="AO27" s="75"/>
       <c r="AP27" s="75"/>
       <c r="AQ27" s="75"/>
-      <c r="AR27" s="136"/>
+      <c r="AR27" s="108"/>
       <c r="AS27" s="75"/>
-      <c r="AT27" s="111"/>
-      <c r="AU27" s="112"/>
-      <c r="AV27" s="112"/>
-      <c r="AW27" s="112"/>
-      <c r="AX27" s="112"/>
-      <c r="AY27" s="113"/>
+      <c r="AT27" s="164"/>
+      <c r="AU27" s="165"/>
+      <c r="AV27" s="165"/>
+      <c r="AW27" s="165"/>
+      <c r="AX27" s="165"/>
+      <c r="AY27" s="166"/>
       <c r="AZ27" s="29"/>
-      <c r="BA27" s="145"/>
+      <c r="BA27" s="110"/>
       <c r="BE27" s="83"/>
     </row>
-    <row r="28" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="144"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="31"/>
       <c r="D28" s="49" t="s">
         <v>51</v>
@@ -4817,7 +4817,7 @@
         <v>84</v>
       </c>
       <c r="K28" s="75"/>
-      <c r="L28" s="136"/>
+      <c r="L28" s="108"/>
       <c r="M28" s="118"/>
       <c r="N28" s="85" t="str">
         <f t="shared" si="2"/>
@@ -4827,7 +4827,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P28" s="104"/>
+      <c r="P28" s="116"/>
       <c r="Q28" s="9" t="str" cm="1">
         <f t="array" ref="Q28">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B27))),"-")</f>
         <v>Mimolette</v>
@@ -4838,7 +4838,7 @@
       <c r="S28" s="118"/>
       <c r="T28" s="75"/>
       <c r="U28" s="118"/>
-      <c r="V28" s="104"/>
+      <c r="V28" s="116"/>
       <c r="W28" s="8" t="str">
         <f>IF(ISBLANK($R$46),"H2",$R$46)</f>
         <v>RyanGosling</v>
@@ -4865,7 +4865,7 @@
       <c r="AO28" s="75"/>
       <c r="AP28" s="75"/>
       <c r="AQ28" s="75"/>
-      <c r="AR28" s="136"/>
+      <c r="AR28" s="108"/>
       <c r="AS28" s="75"/>
       <c r="AT28" s="91"/>
       <c r="AU28" s="92"/>
@@ -4874,14 +4874,14 @@
       <c r="AX28" s="92"/>
       <c r="AY28" s="93"/>
       <c r="AZ28" s="29"/>
-      <c r="BA28" s="145"/>
+      <c r="BA28" s="110"/>
       <c r="BE28" s="83"/>
     </row>
-    <row r="29" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="144"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="31"/>
       <c r="D29" s="49" t="s">
         <v>86</v>
@@ -4902,7 +4902,7 @@
         <v>84</v>
       </c>
       <c r="K29" s="75"/>
-      <c r="L29" s="136"/>
+      <c r="L29" s="108"/>
       <c r="M29" s="118"/>
       <c r="N29" s="85" t="str">
         <f t="shared" si="2"/>
@@ -4912,7 +4912,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="P29" s="102" t="s">
+      <c r="P29" s="114" t="s">
         <v>87</v>
       </c>
       <c r="Q29" s="9" t="str" cm="1">
@@ -4925,7 +4925,7 @@
       <c r="S29" s="118"/>
       <c r="T29" s="75"/>
       <c r="U29" s="118"/>
-      <c r="V29" s="102" t="s">
+      <c r="V29" s="114" t="s">
         <v>88</v>
       </c>
       <c r="W29" s="7" t="str">
@@ -4954,7 +4954,7 @@
       <c r="AO29" s="75"/>
       <c r="AP29" s="75"/>
       <c r="AQ29" s="75"/>
-      <c r="AR29" s="136"/>
+      <c r="AR29" s="108"/>
       <c r="AS29" s="75"/>
       <c r="AT29" s="94"/>
       <c r="AU29" s="2">
@@ -4967,14 +4967,14 @@
       <c r="AX29" s="98"/>
       <c r="AY29" s="94"/>
       <c r="AZ29" s="29"/>
-      <c r="BA29" s="145"/>
+      <c r="BA29" s="110"/>
       <c r="BE29" s="83"/>
     </row>
-    <row r="30" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="144"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="31"/>
       <c r="D30" s="49" t="s">
         <v>90</v>
@@ -4995,7 +4995,7 @@
         <v>84</v>
       </c>
       <c r="K30" s="75"/>
-      <c r="L30" s="136"/>
+      <c r="L30" s="108"/>
       <c r="M30" s="118"/>
       <c r="N30" s="85" t="str">
         <f t="shared" si="2"/>
@@ -5005,7 +5005,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P30" s="103"/>
+      <c r="P30" s="115"/>
       <c r="Q30" s="8" t="str" cm="1">
         <f t="array" ref="Q30">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B12))),"-")</f>
         <v>Canard</v>
@@ -5016,7 +5016,7 @@
       <c r="S30" s="118"/>
       <c r="T30" s="75"/>
       <c r="U30" s="118"/>
-      <c r="V30" s="103"/>
+      <c r="V30" s="115"/>
       <c r="W30" s="8" t="str">
         <f>IF(ISBLANK($R$45),"H1",$R$45)</f>
         <v>Ioupy</v>
@@ -5043,7 +5043,7 @@
       <c r="AO30" s="75"/>
       <c r="AP30" s="75"/>
       <c r="AQ30" s="75"/>
-      <c r="AR30" s="136"/>
+      <c r="AR30" s="108"/>
       <c r="AS30" s="75"/>
       <c r="AT30" s="95"/>
       <c r="AU30" s="1" t="s">
@@ -5060,14 +5060,14 @@
       </c>
       <c r="AY30" s="95"/>
       <c r="AZ30" s="29"/>
-      <c r="BA30" s="145"/>
+      <c r="BA30" s="110"/>
       <c r="BE30" s="83"/>
     </row>
-    <row r="31" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="144"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="31"/>
       <c r="D31" s="49" t="s">
         <v>92</v>
@@ -5088,7 +5088,7 @@
         <v>93</v>
       </c>
       <c r="K31" s="86"/>
-      <c r="L31" s="136"/>
+      <c r="L31" s="108"/>
       <c r="M31" s="118"/>
       <c r="N31" s="85" t="str">
         <f t="shared" si="2"/>
@@ -5098,7 +5098,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="P31" s="103"/>
+      <c r="P31" s="115"/>
       <c r="Q31" s="8" t="str" cm="1">
         <f t="array" ref="Q31">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B20))),"-")</f>
         <v>Ainsleaf</v>
@@ -5109,7 +5109,7 @@
       <c r="S31" s="118"/>
       <c r="T31" s="75"/>
       <c r="U31" s="118"/>
-      <c r="V31" s="103"/>
+      <c r="V31" s="115"/>
       <c r="W31" s="8" t="str">
         <f>IF(ISBLANK($R$18),"A2",$R$18)</f>
         <v>LeCed</v>
@@ -5136,10 +5136,10 @@
       <c r="AO31" s="75"/>
       <c r="AP31" s="75"/>
       <c r="AQ31" s="75"/>
-      <c r="AR31" s="136"/>
+      <c r="AR31" s="108"/>
       <c r="AS31" s="75"/>
       <c r="AT31" s="95"/>
-      <c r="AU31" s="167" t="s">
+      <c r="AU31" s="146" t="s">
         <v>95</v>
       </c>
       <c r="AV31" s="13" t="str">
@@ -5154,14 +5154,14 @@
       </c>
       <c r="AY31" s="58"/>
       <c r="AZ31" s="29"/>
-      <c r="BA31" s="145"/>
+      <c r="BA31" s="110"/>
       <c r="BE31" s="83"/>
     </row>
-    <row r="32" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="144"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="31"/>
       <c r="D32" s="49" t="s">
         <v>45</v>
@@ -5182,7 +5182,7 @@
         <v>93</v>
       </c>
       <c r="K32" s="86"/>
-      <c r="L32" s="136"/>
+      <c r="L32" s="108"/>
       <c r="M32" s="118"/>
       <c r="N32" s="85" t="str">
         <f t="shared" si="2"/>
@@ -5192,7 +5192,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="P32" s="104"/>
+      <c r="P32" s="116"/>
       <c r="Q32" s="9" t="str" cm="1">
         <f t="array" ref="Q32">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B28))),"-")</f>
         <v>Illustrator</v>
@@ -5203,7 +5203,7 @@
       <c r="S32" s="118"/>
       <c r="T32" s="75"/>
       <c r="U32" s="119"/>
-      <c r="V32" s="104"/>
+      <c r="V32" s="116"/>
       <c r="W32" s="9" t="str">
         <f>IF(ISBLANK($R$34),"E2",$R$34)</f>
         <v>Charasime</v>
@@ -5230,10 +5230,10 @@
       <c r="AO32" s="75"/>
       <c r="AP32" s="75"/>
       <c r="AQ32" s="75"/>
-      <c r="AR32" s="136"/>
+      <c r="AR32" s="108"/>
       <c r="AS32" s="75"/>
       <c r="AT32" s="95"/>
-      <c r="AU32" s="168"/>
+      <c r="AU32" s="147"/>
       <c r="AV32" s="14" t="str">
         <f>IF(ISBLANK($AP$66),"LF4",$AP$66)</f>
         <v>Bastien</v>
@@ -5246,14 +5246,14 @@
       </c>
       <c r="AY32" s="58"/>
       <c r="AZ32" s="29"/>
-      <c r="BA32" s="145"/>
+      <c r="BA32" s="110"/>
       <c r="BE32" s="83"/>
     </row>
-    <row r="33" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="144"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="31"/>
       <c r="D33" s="49" t="s">
         <v>69</v>
@@ -5274,7 +5274,7 @@
         <v>93</v>
       </c>
       <c r="K33" s="86"/>
-      <c r="L33" s="136"/>
+      <c r="L33" s="108"/>
       <c r="M33" s="118"/>
       <c r="N33" s="85" t="str">
         <f t="shared" si="2"/>
@@ -5284,7 +5284,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="P33" s="102" t="s">
+      <c r="P33" s="114" t="s">
         <v>99</v>
       </c>
       <c r="Q33" s="7" t="str" cm="1">
@@ -5296,11 +5296,11 @@
       </c>
       <c r="S33" s="118"/>
       <c r="T33" s="75"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="115"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="116"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="112"/>
+      <c r="W33" s="112"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="113"/>
       <c r="Z33" s="75"/>
       <c r="AA33" s="75"/>
       <c r="AB33" s="75"/>
@@ -5319,10 +5319,10 @@
       <c r="AO33" s="75"/>
       <c r="AP33" s="75"/>
       <c r="AQ33" s="75"/>
-      <c r="AR33" s="136"/>
+      <c r="AR33" s="108"/>
       <c r="AS33" s="75"/>
       <c r="AT33" s="95"/>
-      <c r="AU33" s="168"/>
+      <c r="AU33" s="147"/>
       <c r="AV33" s="14" t="str">
         <f>IF(ISBLANK($AJ$65),"Z3",$AJ$65)</f>
         <v>Ioupy</v>
@@ -5335,14 +5335,14 @@
       </c>
       <c r="AY33" s="58"/>
       <c r="AZ33" s="29"/>
-      <c r="BA33" s="145"/>
+      <c r="BA33" s="110"/>
       <c r="BE33" s="83"/>
     </row>
-    <row r="34" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="144"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="31"/>
       <c r="D34" s="49" t="s">
         <v>82</v>
@@ -5363,7 +5363,7 @@
         <v>93</v>
       </c>
       <c r="K34" s="86"/>
-      <c r="L34" s="136"/>
+      <c r="L34" s="108"/>
       <c r="M34" s="118"/>
       <c r="N34" s="85" t="str">
         <f t="shared" si="2"/>
@@ -5373,7 +5373,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="P34" s="103"/>
+      <c r="P34" s="115"/>
       <c r="Q34" s="8" t="str" cm="1">
         <f t="array" ref="Q34">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B13))),"-")</f>
         <v>Charasime</v>
@@ -5406,10 +5406,10 @@
       <c r="AO34" s="75"/>
       <c r="AP34" s="75"/>
       <c r="AQ34" s="75"/>
-      <c r="AR34" s="136"/>
+      <c r="AR34" s="108"/>
       <c r="AS34" s="75"/>
       <c r="AT34" s="96"/>
-      <c r="AU34" s="169"/>
+      <c r="AU34" s="148"/>
       <c r="AV34" s="15" t="str">
         <f>IF(ISBLANK($AJ$69),"AA3",$AJ$69)</f>
         <v>Arthur</v>
@@ -5422,14 +5422,14 @@
       </c>
       <c r="AY34" s="59"/>
       <c r="AZ34" s="29"/>
-      <c r="BA34" s="145"/>
+      <c r="BA34" s="110"/>
       <c r="BE34" s="83"/>
     </row>
-    <row r="35" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="144"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="31"/>
       <c r="D35" s="49" t="s">
         <v>94</v>
@@ -5450,7 +5450,7 @@
         <v>102</v>
       </c>
       <c r="K35" s="86"/>
-      <c r="L35" s="136"/>
+      <c r="L35" s="108"/>
       <c r="M35" s="118"/>
       <c r="N35" s="85" t="str">
         <f t="shared" si="2"/>
@@ -5460,7 +5460,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="P35" s="103"/>
+      <c r="P35" s="115"/>
       <c r="Q35" s="8" t="str" cm="1">
         <f t="array" ref="Q35">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B21))),"-")</f>
         <v>Flo</v>
@@ -5493,7 +5493,7 @@
       <c r="AO35" s="75"/>
       <c r="AP35" s="75"/>
       <c r="AQ35" s="75"/>
-      <c r="AR35" s="136"/>
+      <c r="AR35" s="108"/>
       <c r="AS35" s="75"/>
       <c r="AT35" s="91"/>
       <c r="AU35" s="92"/>
@@ -5502,14 +5502,14 @@
       <c r="AX35" s="99"/>
       <c r="AY35" s="93"/>
       <c r="AZ35" s="29"/>
-      <c r="BA35" s="145"/>
+      <c r="BA35" s="110"/>
       <c r="BE35" s="83"/>
     </row>
-    <row r="36" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="144"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="31"/>
       <c r="D36" s="49" t="s">
         <v>103</v>
@@ -5530,7 +5530,7 @@
         <v>102</v>
       </c>
       <c r="K36" s="86"/>
-      <c r="L36" s="136"/>
+      <c r="L36" s="108"/>
       <c r="M36" s="118"/>
       <c r="N36" s="85" t="str">
         <f t="shared" si="2"/>
@@ -5540,7 +5540,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P36" s="104"/>
+      <c r="P36" s="116"/>
       <c r="Q36" s="9" t="str" cm="1">
         <f t="array" ref="Q36">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B29))),"-")</f>
         <v>AfterEffect</v>
@@ -5573,7 +5573,7 @@
       <c r="AO36" s="75"/>
       <c r="AP36" s="75"/>
       <c r="AQ36" s="75"/>
-      <c r="AR36" s="136"/>
+      <c r="AR36" s="108"/>
       <c r="AS36" s="75"/>
       <c r="AT36" s="75"/>
       <c r="AU36" s="75"/>
@@ -5582,14 +5582,14 @@
       <c r="AX36" s="75"/>
       <c r="AY36" s="75"/>
       <c r="AZ36" s="29"/>
-      <c r="BA36" s="145"/>
+      <c r="BA36" s="110"/>
       <c r="BE36" s="83"/>
     </row>
-    <row r="37" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="144"/>
+      <c r="B37" s="124"/>
       <c r="C37" s="31"/>
       <c r="D37" s="49" t="s">
         <v>55</v>
@@ -5610,7 +5610,7 @@
         <v>102</v>
       </c>
       <c r="K37" s="86"/>
-      <c r="L37" s="136"/>
+      <c r="L37" s="108"/>
       <c r="M37" s="118"/>
       <c r="N37" s="85" t="str">
         <f t="shared" si="2"/>
@@ -5620,7 +5620,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="P37" s="102" t="s">
+      <c r="P37" s="114" t="s">
         <v>107</v>
       </c>
       <c r="Q37" s="7" t="str" cm="1">
@@ -5655,7 +5655,7 @@
       <c r="AO37" s="75"/>
       <c r="AP37" s="75"/>
       <c r="AQ37" s="75"/>
-      <c r="AR37" s="136"/>
+      <c r="AR37" s="108"/>
       <c r="AS37" s="75"/>
       <c r="AT37" s="75"/>
       <c r="AU37" s="75"/>
@@ -5664,14 +5664,14 @@
       <c r="AX37" s="75"/>
       <c r="AY37" s="75"/>
       <c r="AZ37" s="29"/>
-      <c r="BA37" s="145"/>
+      <c r="BA37" s="110"/>
       <c r="BE37" s="83"/>
     </row>
-    <row r="38" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="144"/>
+      <c r="B38" s="124"/>
       <c r="C38" s="31"/>
       <c r="D38" s="49" t="s">
         <v>109</v>
@@ -5692,7 +5692,7 @@
         <v>102</v>
       </c>
       <c r="K38" s="86"/>
-      <c r="L38" s="136"/>
+      <c r="L38" s="108"/>
       <c r="M38" s="118"/>
       <c r="N38" s="85" t="str">
         <f t="shared" si="2"/>
@@ -5702,7 +5702,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="P38" s="103"/>
+      <c r="P38" s="115"/>
       <c r="Q38" s="8" t="str" cm="1">
         <f t="array" ref="Q38">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B14))),"-")</f>
         <v>Ishigami</v>
@@ -5735,7 +5735,7 @@
       <c r="AO38" s="75"/>
       <c r="AP38" s="75"/>
       <c r="AQ38" s="75"/>
-      <c r="AR38" s="136"/>
+      <c r="AR38" s="108"/>
       <c r="AS38" s="75"/>
       <c r="AT38" s="75"/>
       <c r="AU38" s="75"/>
@@ -5744,14 +5744,14 @@
       <c r="AX38" s="75"/>
       <c r="AY38" s="75"/>
       <c r="AZ38" s="29"/>
-      <c r="BA38" s="145"/>
+      <c r="BA38" s="110"/>
       <c r="BE38" s="83"/>
     </row>
-    <row r="39" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="144"/>
+      <c r="B39" s="124"/>
       <c r="C39" s="31"/>
       <c r="D39" s="49" t="s">
         <v>111</v>
@@ -5772,7 +5772,7 @@
         <v>112</v>
       </c>
       <c r="K39" s="86"/>
-      <c r="L39" s="136"/>
+      <c r="L39" s="108"/>
       <c r="M39" s="118"/>
       <c r="N39" s="85" t="str">
         <f t="shared" si="2"/>
@@ -5782,7 +5782,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="P39" s="103"/>
+      <c r="P39" s="115"/>
       <c r="Q39" s="8" t="str" cm="1">
         <f t="array" ref="Q39">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B22))),"-")</f>
         <v>TheDude</v>
@@ -5815,7 +5815,7 @@
       <c r="AO39" s="75"/>
       <c r="AP39" s="75"/>
       <c r="AQ39" s="75"/>
-      <c r="AR39" s="136"/>
+      <c r="AR39" s="108"/>
       <c r="AS39" s="75"/>
       <c r="AT39" s="75"/>
       <c r="AU39" s="75"/>
@@ -5824,14 +5824,14 @@
       <c r="AX39" s="75"/>
       <c r="AY39" s="75"/>
       <c r="AZ39" s="29"/>
-      <c r="BA39" s="145"/>
+      <c r="BA39" s="110"/>
       <c r="BE39" s="83"/>
     </row>
-    <row r="40" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="144"/>
+      <c r="B40" s="124"/>
       <c r="C40" s="31"/>
       <c r="D40" s="49" t="s">
         <v>54</v>
@@ -5852,7 +5852,7 @@
         <v>112</v>
       </c>
       <c r="K40" s="86"/>
-      <c r="L40" s="136"/>
+      <c r="L40" s="108"/>
       <c r="M40" s="118"/>
       <c r="N40" s="85" t="str">
         <f t="shared" si="2"/>
@@ -5862,7 +5862,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="P40" s="104"/>
+      <c r="P40" s="116"/>
       <c r="Q40" s="9" t="str" cm="1">
         <f t="array" ref="Q40">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B30))),"-")</f>
         <v>MinecraftKing</v>
@@ -5895,7 +5895,7 @@
       <c r="AO40" s="75"/>
       <c r="AP40" s="75"/>
       <c r="AQ40" s="75"/>
-      <c r="AR40" s="136"/>
+      <c r="AR40" s="108"/>
       <c r="AS40" s="75"/>
       <c r="AT40" s="75"/>
       <c r="AU40" s="75"/>
@@ -5904,14 +5904,14 @@
       <c r="AX40" s="75"/>
       <c r="AY40" s="75"/>
       <c r="AZ40" s="29"/>
-      <c r="BA40" s="145"/>
+      <c r="BA40" s="110"/>
       <c r="BE40" s="83"/>
     </row>
-    <row r="41" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="144"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="31"/>
       <c r="D41" s="19" t="s">
         <v>71</v>
@@ -5932,7 +5932,7 @@
         <v>112</v>
       </c>
       <c r="K41" s="86"/>
-      <c r="L41" s="136"/>
+      <c r="L41" s="108"/>
       <c r="M41" s="118"/>
       <c r="N41" s="85" t="str">
         <f t="shared" si="2"/>
@@ -5942,7 +5942,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="P41" s="102" t="s">
+      <c r="P41" s="114" t="s">
         <v>116</v>
       </c>
       <c r="Q41" s="7" t="str" cm="1">
@@ -5977,7 +5977,7 @@
       <c r="AO41" s="75"/>
       <c r="AP41" s="75"/>
       <c r="AQ41" s="75"/>
-      <c r="AR41" s="136"/>
+      <c r="AR41" s="108"/>
       <c r="AS41" s="75"/>
       <c r="AT41" s="75"/>
       <c r="AU41" s="75"/>
@@ -5986,14 +5986,14 @@
       <c r="AX41" s="75"/>
       <c r="AY41" s="75"/>
       <c r="AZ41" s="29"/>
-      <c r="BA41" s="145"/>
+      <c r="BA41" s="110"/>
       <c r="BE41" s="83"/>
     </row>
-    <row r="42" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="144"/>
+      <c r="B42" s="124"/>
       <c r="C42" s="31"/>
       <c r="D42" s="19" t="s">
         <v>72</v>
@@ -6014,7 +6014,7 @@
         <v>112</v>
       </c>
       <c r="K42" s="86"/>
-      <c r="L42" s="136"/>
+      <c r="L42" s="108"/>
       <c r="M42" s="118"/>
       <c r="N42" s="85" t="str">
         <f t="shared" si="2"/>
@@ -6024,7 +6024,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="P42" s="103"/>
+      <c r="P42" s="115"/>
       <c r="Q42" s="8" t="str" cm="1">
         <f t="array" ref="Q42">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B15))),"-")</f>
         <v>Maetona</v>
@@ -6057,7 +6057,7 @@
       <c r="AO42" s="75"/>
       <c r="AP42" s="75"/>
       <c r="AQ42" s="75"/>
-      <c r="AR42" s="136"/>
+      <c r="AR42" s="108"/>
       <c r="AS42" s="75"/>
       <c r="AT42" s="75"/>
       <c r="AU42" s="75"/>
@@ -6066,14 +6066,14 @@
       <c r="AX42" s="75"/>
       <c r="AY42" s="75"/>
       <c r="AZ42" s="29"/>
-      <c r="BA42" s="145"/>
+      <c r="BA42" s="110"/>
       <c r="BE42" s="83"/>
     </row>
-    <row r="43" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="144"/>
+      <c r="B43" s="124"/>
       <c r="C43" s="31"/>
       <c r="D43" s="19" t="s">
         <v>97</v>
@@ -6094,7 +6094,7 @@
         <v>119</v>
       </c>
       <c r="K43" s="86"/>
-      <c r="L43" s="136"/>
+      <c r="L43" s="108"/>
       <c r="M43" s="118"/>
       <c r="N43" s="85" t="str">
         <f t="shared" si="2"/>
@@ -6104,7 +6104,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="P43" s="103"/>
+      <c r="P43" s="115"/>
       <c r="Q43" s="8" t="str" cm="1">
         <f t="array" ref="Q43">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B23))),"-")</f>
         <v>Kikozu</v>
@@ -6137,7 +6137,7 @@
       <c r="AO43" s="75"/>
       <c r="AP43" s="75"/>
       <c r="AQ43" s="75"/>
-      <c r="AR43" s="136"/>
+      <c r="AR43" s="108"/>
       <c r="AS43" s="75"/>
       <c r="AT43" s="75"/>
       <c r="AU43" s="75"/>
@@ -6146,14 +6146,14 @@
       <c r="AX43" s="75"/>
       <c r="AY43" s="75"/>
       <c r="AZ43" s="29"/>
-      <c r="BA43" s="145"/>
+      <c r="BA43" s="110"/>
       <c r="BE43" s="83"/>
     </row>
-    <row r="44" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="144"/>
+      <c r="B44" s="124"/>
       <c r="C44" s="31"/>
       <c r="D44" s="19" t="s">
         <v>105</v>
@@ -6174,7 +6174,7 @@
         <v>119</v>
       </c>
       <c r="K44" s="86"/>
-      <c r="L44" s="136"/>
+      <c r="L44" s="108"/>
       <c r="M44" s="118"/>
       <c r="N44" s="85" t="str">
         <f t="shared" si="2"/>
@@ -6184,7 +6184,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="P44" s="104"/>
+      <c r="P44" s="116"/>
       <c r="Q44" s="9" t="s">
         <v>40</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="AO44" s="75"/>
       <c r="AP44" s="75"/>
       <c r="AQ44" s="75"/>
-      <c r="AR44" s="136"/>
+      <c r="AR44" s="108"/>
       <c r="AS44" s="75"/>
       <c r="AT44" s="75"/>
       <c r="AU44" s="75"/>
@@ -6225,14 +6225,14 @@
       <c r="AX44" s="75"/>
       <c r="AY44" s="75"/>
       <c r="AZ44" s="29"/>
-      <c r="BA44" s="145"/>
+      <c r="BA44" s="110"/>
       <c r="BE44" s="83"/>
     </row>
-    <row r="45" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="144"/>
+      <c r="B45" s="124"/>
       <c r="C45" s="31"/>
       <c r="D45" s="19" t="s">
         <v>114</v>
@@ -6253,7 +6253,7 @@
         <v>119</v>
       </c>
       <c r="K45" s="86"/>
-      <c r="L45" s="136"/>
+      <c r="L45" s="108"/>
       <c r="M45" s="118"/>
       <c r="N45" s="85" t="str">
         <f t="shared" si="2"/>
@@ -6263,7 +6263,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="P45" s="102" t="s">
+      <c r="P45" s="114" t="s">
         <v>122</v>
       </c>
       <c r="Q45" s="7" t="str" cm="1">
@@ -6298,7 +6298,7 @@
       <c r="AO45" s="75"/>
       <c r="AP45" s="75"/>
       <c r="AQ45" s="75"/>
-      <c r="AR45" s="136"/>
+      <c r="AR45" s="108"/>
       <c r="AS45" s="75"/>
       <c r="AT45" s="75"/>
       <c r="AU45" s="75"/>
@@ -6307,14 +6307,14 @@
       <c r="AX45" s="75"/>
       <c r="AY45" s="75"/>
       <c r="AZ45" s="29"/>
-      <c r="BA45" s="145"/>
+      <c r="BA45" s="110"/>
       <c r="BE45" s="83"/>
     </row>
-    <row r="46" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="144"/>
+      <c r="B46" s="124"/>
       <c r="C46" s="31"/>
       <c r="D46" s="20" t="s">
         <v>124</v>
@@ -6335,7 +6335,7 @@
         <v>119</v>
       </c>
       <c r="K46" s="86"/>
-      <c r="L46" s="136"/>
+      <c r="L46" s="108"/>
       <c r="M46" s="118"/>
       <c r="N46" s="85" t="str">
         <f t="shared" si="2"/>
@@ -6345,7 +6345,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="P46" s="103"/>
+      <c r="P46" s="115"/>
       <c r="Q46" s="8" t="str" cm="1">
         <f t="array" ref="Q46">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B16))),"-")</f>
         <v>Ioupy</v>
@@ -6378,7 +6378,7 @@
       <c r="AO46" s="75"/>
       <c r="AP46" s="75"/>
       <c r="AQ46" s="75"/>
-      <c r="AR46" s="136"/>
+      <c r="AR46" s="108"/>
       <c r="AS46" s="75"/>
       <c r="AT46" s="75"/>
       <c r="AU46" s="75"/>
@@ -6387,14 +6387,14 @@
       <c r="AX46" s="75"/>
       <c r="AY46" s="75"/>
       <c r="AZ46" s="29"/>
-      <c r="BA46" s="145"/>
+      <c r="BA46" s="110"/>
       <c r="BE46" s="83"/>
     </row>
-    <row r="47" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="144"/>
+      <c r="B47" s="124"/>
       <c r="C47" s="31"/>
       <c r="D47" s="88"/>
       <c r="E47" s="79"/>
@@ -6404,7 +6404,7 @@
       <c r="I47" s="79"/>
       <c r="J47" s="79"/>
       <c r="K47" s="86"/>
-      <c r="L47" s="136"/>
+      <c r="L47" s="108"/>
       <c r="M47" s="118"/>
       <c r="N47" s="85" t="e">
         <f>IF(E45=2,#REF! &amp; "  [DQ]",#REF!)</f>
@@ -6414,7 +6414,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="P47" s="103"/>
+      <c r="P47" s="115"/>
       <c r="Q47" s="8" t="str" cm="1">
         <f t="array" ref="Q47">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B24))),"-")</f>
         <v>SquidGame</v>
@@ -6447,7 +6447,7 @@
       <c r="AO47" s="75"/>
       <c r="AP47" s="75"/>
       <c r="AQ47" s="75"/>
-      <c r="AR47" s="136"/>
+      <c r="AR47" s="108"/>
       <c r="AS47" s="75"/>
       <c r="AT47" s="75"/>
       <c r="AU47" s="75"/>
@@ -6456,14 +6456,14 @@
       <c r="AX47" s="75"/>
       <c r="AY47" s="75"/>
       <c r="AZ47" s="29"/>
-      <c r="BA47" s="145"/>
+      <c r="BA47" s="110"/>
       <c r="BE47" s="83"/>
     </row>
-    <row r="48" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="144"/>
+      <c r="B48" s="124"/>
       <c r="C48" s="31"/>
       <c r="D48" s="88"/>
       <c r="E48" s="79"/>
@@ -6473,7 +6473,7 @@
       <c r="I48" s="79"/>
       <c r="J48" s="79"/>
       <c r="K48" s="86"/>
-      <c r="L48" s="136"/>
+      <c r="L48" s="108"/>
       <c r="M48" s="119"/>
       <c r="N48" s="85" t="str">
         <f t="shared" si="0"/>
@@ -6483,7 +6483,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="P48" s="104"/>
+      <c r="P48" s="116"/>
       <c r="Q48" s="9" t="str" cm="1">
         <f t="array" ref="Q48">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B32))),"-")</f>
         <v>-</v>
@@ -6516,7 +6516,7 @@
       <c r="AO48" s="75"/>
       <c r="AP48" s="75"/>
       <c r="AQ48" s="75"/>
-      <c r="AR48" s="136"/>
+      <c r="AR48" s="108"/>
       <c r="AS48" s="75"/>
       <c r="AT48" s="75"/>
       <c r="AU48" s="75"/>
@@ -6525,14 +6525,14 @@
       <c r="AX48" s="75"/>
       <c r="AY48" s="75"/>
       <c r="AZ48" s="29"/>
-      <c r="BA48" s="145"/>
+      <c r="BA48" s="110"/>
       <c r="BE48" s="83"/>
     </row>
-    <row r="49" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="144"/>
+      <c r="B49" s="124"/>
       <c r="C49" s="31"/>
       <c r="D49" s="88"/>
       <c r="E49" s="79"/>
@@ -6542,14 +6542,14 @@
       <c r="I49" s="79"/>
       <c r="J49" s="79"/>
       <c r="K49" s="86"/>
-      <c r="L49" s="136"/>
-      <c r="M49" s="115"/>
-      <c r="N49" s="115"/>
-      <c r="O49" s="115"/>
-      <c r="P49" s="115"/>
-      <c r="Q49" s="138"/>
-      <c r="R49" s="115"/>
-      <c r="S49" s="116"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="112"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="181"/>
+      <c r="R49" s="112"/>
+      <c r="S49" s="113"/>
       <c r="T49" s="75"/>
       <c r="U49" s="75"/>
       <c r="V49" s="75"/>
@@ -6574,7 +6574,7 @@
       <c r="AO49" s="75"/>
       <c r="AP49" s="75"/>
       <c r="AQ49" s="75"/>
-      <c r="AR49" s="136"/>
+      <c r="AR49" s="108"/>
       <c r="AS49" s="75"/>
       <c r="AT49" s="75"/>
       <c r="AU49" s="75"/>
@@ -6583,14 +6583,14 @@
       <c r="AX49" s="75"/>
       <c r="AY49" s="75"/>
       <c r="AZ49" s="29"/>
-      <c r="BA49" s="145"/>
+      <c r="BA49" s="110"/>
       <c r="BE49" s="83"/>
     </row>
-    <row r="50" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="144"/>
+      <c r="B50" s="124"/>
       <c r="C50" s="30"/>
       <c r="D50" s="75"/>
       <c r="E50" s="78"/>
@@ -6600,7 +6600,7 @@
       <c r="I50" s="79"/>
       <c r="J50" s="79"/>
       <c r="K50" s="75"/>
-      <c r="L50" s="136"/>
+      <c r="L50" s="108"/>
       <c r="M50" s="75"/>
       <c r="N50" s="75"/>
       <c r="O50" s="75"/>
@@ -6632,7 +6632,7 @@
       <c r="AO50" s="75"/>
       <c r="AP50" s="75"/>
       <c r="AQ50" s="75"/>
-      <c r="AR50" s="136"/>
+      <c r="AR50" s="108"/>
       <c r="AS50" s="75"/>
       <c r="AT50" s="75"/>
       <c r="AU50" s="75"/>
@@ -6641,14 +6641,14 @@
       <c r="AX50" s="75"/>
       <c r="AY50" s="75"/>
       <c r="AZ50" s="29"/>
-      <c r="BA50" s="145"/>
+      <c r="BA50" s="110"/>
       <c r="BE50" s="83"/>
     </row>
-    <row r="51" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="144"/>
+      <c r="B51" s="124"/>
       <c r="C51" s="30"/>
       <c r="D51" s="75"/>
       <c r="E51" s="78"/>
@@ -6658,7 +6658,7 @@
       <c r="I51" s="79"/>
       <c r="J51" s="79"/>
       <c r="K51" s="75"/>
-      <c r="L51" s="136"/>
+      <c r="L51" s="108"/>
       <c r="M51" s="75"/>
       <c r="N51" s="75"/>
       <c r="O51" s="75"/>
@@ -6690,7 +6690,7 @@
       <c r="AO51" s="75"/>
       <c r="AP51" s="75"/>
       <c r="AQ51" s="75"/>
-      <c r="AR51" s="136"/>
+      <c r="AR51" s="108"/>
       <c r="AS51" s="75"/>
       <c r="AT51" s="75"/>
       <c r="AU51" s="75"/>
@@ -6699,14 +6699,14 @@
       <c r="AX51" s="75"/>
       <c r="AY51" s="75"/>
       <c r="AZ51" s="29"/>
-      <c r="BA51" s="145"/>
+      <c r="BA51" s="110"/>
       <c r="BE51" s="83"/>
     </row>
-    <row r="52" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="144"/>
+      <c r="B52" s="124"/>
       <c r="C52" s="30"/>
       <c r="D52" s="75"/>
       <c r="E52" s="78"/>
@@ -6716,41 +6716,41 @@
       <c r="I52" s="79"/>
       <c r="J52" s="79"/>
       <c r="K52" s="75"/>
-      <c r="L52" s="136"/>
-      <c r="M52" s="146" t="s">
+      <c r="L52" s="108"/>
+      <c r="M52" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="N52" s="147"/>
-      <c r="O52" s="147"/>
-      <c r="P52" s="147"/>
-      <c r="Q52" s="147"/>
-      <c r="R52" s="147"/>
-      <c r="S52" s="147"/>
-      <c r="T52" s="147"/>
-      <c r="U52" s="147"/>
-      <c r="V52" s="147"/>
-      <c r="W52" s="147"/>
-      <c r="X52" s="147"/>
-      <c r="Y52" s="147"/>
-      <c r="Z52" s="147"/>
-      <c r="AA52" s="147"/>
-      <c r="AB52" s="147"/>
-      <c r="AC52" s="147"/>
-      <c r="AD52" s="147"/>
-      <c r="AE52" s="147"/>
-      <c r="AF52" s="147"/>
-      <c r="AG52" s="147"/>
-      <c r="AH52" s="147"/>
-      <c r="AI52" s="147"/>
-      <c r="AJ52" s="147"/>
-      <c r="AK52" s="147"/>
-      <c r="AL52" s="147"/>
-      <c r="AM52" s="147"/>
-      <c r="AN52" s="147"/>
-      <c r="AO52" s="147"/>
-      <c r="AP52" s="147"/>
-      <c r="AQ52" s="148"/>
-      <c r="AR52" s="136"/>
+      <c r="N52" s="126"/>
+      <c r="O52" s="126"/>
+      <c r="P52" s="126"/>
+      <c r="Q52" s="126"/>
+      <c r="R52" s="126"/>
+      <c r="S52" s="126"/>
+      <c r="T52" s="126"/>
+      <c r="U52" s="126"/>
+      <c r="V52" s="126"/>
+      <c r="W52" s="126"/>
+      <c r="X52" s="126"/>
+      <c r="Y52" s="126"/>
+      <c r="Z52" s="126"/>
+      <c r="AA52" s="126"/>
+      <c r="AB52" s="126"/>
+      <c r="AC52" s="126"/>
+      <c r="AD52" s="126"/>
+      <c r="AE52" s="126"/>
+      <c r="AF52" s="126"/>
+      <c r="AG52" s="126"/>
+      <c r="AH52" s="126"/>
+      <c r="AI52" s="126"/>
+      <c r="AJ52" s="126"/>
+      <c r="AK52" s="126"/>
+      <c r="AL52" s="126"/>
+      <c r="AM52" s="126"/>
+      <c r="AN52" s="126"/>
+      <c r="AO52" s="126"/>
+      <c r="AP52" s="126"/>
+      <c r="AQ52" s="127"/>
+      <c r="AR52" s="108"/>
       <c r="AS52" s="75"/>
       <c r="AT52" s="75"/>
       <c r="AU52" s="75"/>
@@ -6759,14 +6759,14 @@
       <c r="AX52" s="75"/>
       <c r="AY52" s="75"/>
       <c r="AZ52" s="29"/>
-      <c r="BA52" s="145"/>
+      <c r="BA52" s="110"/>
       <c r="BE52" s="83"/>
     </row>
-    <row r="53" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="144"/>
+      <c r="B53" s="124"/>
       <c r="C53" s="30"/>
       <c r="D53" s="75"/>
       <c r="E53" s="78"/>
@@ -6776,39 +6776,39 @@
       <c r="I53" s="79"/>
       <c r="J53" s="79"/>
       <c r="K53" s="75"/>
-      <c r="L53" s="136"/>
-      <c r="M53" s="149"/>
-      <c r="N53" s="150"/>
-      <c r="O53" s="150"/>
-      <c r="P53" s="150"/>
-      <c r="Q53" s="150"/>
-      <c r="R53" s="150"/>
-      <c r="S53" s="150"/>
-      <c r="T53" s="150"/>
-      <c r="U53" s="150"/>
-      <c r="V53" s="150"/>
-      <c r="W53" s="150"/>
-      <c r="X53" s="150"/>
-      <c r="Y53" s="150"/>
-      <c r="Z53" s="150"/>
-      <c r="AA53" s="150"/>
-      <c r="AB53" s="150"/>
-      <c r="AC53" s="150"/>
-      <c r="AD53" s="150"/>
-      <c r="AE53" s="150"/>
-      <c r="AF53" s="150"/>
-      <c r="AG53" s="150"/>
-      <c r="AH53" s="150"/>
-      <c r="AI53" s="150"/>
-      <c r="AJ53" s="150"/>
-      <c r="AK53" s="150"/>
-      <c r="AL53" s="150"/>
-      <c r="AM53" s="150"/>
-      <c r="AN53" s="150"/>
-      <c r="AO53" s="150"/>
-      <c r="AP53" s="150"/>
-      <c r="AQ53" s="151"/>
-      <c r="AR53" s="136"/>
+      <c r="L53" s="108"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="129"/>
+      <c r="O53" s="129"/>
+      <c r="P53" s="129"/>
+      <c r="Q53" s="129"/>
+      <c r="R53" s="129"/>
+      <c r="S53" s="129"/>
+      <c r="T53" s="129"/>
+      <c r="U53" s="129"/>
+      <c r="V53" s="129"/>
+      <c r="W53" s="129"/>
+      <c r="X53" s="129"/>
+      <c r="Y53" s="129"/>
+      <c r="Z53" s="129"/>
+      <c r="AA53" s="129"/>
+      <c r="AB53" s="129"/>
+      <c r="AC53" s="129"/>
+      <c r="AD53" s="129"/>
+      <c r="AE53" s="129"/>
+      <c r="AF53" s="129"/>
+      <c r="AG53" s="129"/>
+      <c r="AH53" s="129"/>
+      <c r="AI53" s="129"/>
+      <c r="AJ53" s="129"/>
+      <c r="AK53" s="129"/>
+      <c r="AL53" s="129"/>
+      <c r="AM53" s="129"/>
+      <c r="AN53" s="129"/>
+      <c r="AO53" s="129"/>
+      <c r="AP53" s="129"/>
+      <c r="AQ53" s="130"/>
+      <c r="AR53" s="108"/>
       <c r="AS53" s="75"/>
       <c r="AT53" s="75"/>
       <c r="AU53" s="75"/>
@@ -6817,14 +6817,14 @@
       <c r="AX53" s="75"/>
       <c r="AY53" s="75"/>
       <c r="AZ53" s="29"/>
-      <c r="BA53" s="145"/>
+      <c r="BA53" s="110"/>
       <c r="BE53" s="83"/>
     </row>
-    <row r="54" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="144"/>
+      <c r="B54" s="124"/>
       <c r="C54" s="30"/>
       <c r="D54" s="75"/>
       <c r="E54" s="78"/>
@@ -6834,39 +6834,39 @@
       <c r="I54" s="79"/>
       <c r="J54" s="79"/>
       <c r="K54" s="75"/>
-      <c r="L54" s="136"/>
-      <c r="M54" s="152"/>
-      <c r="N54" s="153"/>
-      <c r="O54" s="153"/>
-      <c r="P54" s="153"/>
-      <c r="Q54" s="153"/>
-      <c r="R54" s="153"/>
-      <c r="S54" s="153"/>
-      <c r="T54" s="153"/>
-      <c r="U54" s="153"/>
-      <c r="V54" s="153"/>
-      <c r="W54" s="153"/>
-      <c r="X54" s="153"/>
-      <c r="Y54" s="153"/>
-      <c r="Z54" s="153"/>
-      <c r="AA54" s="153"/>
-      <c r="AB54" s="153"/>
-      <c r="AC54" s="153"/>
-      <c r="AD54" s="153"/>
-      <c r="AE54" s="153"/>
-      <c r="AF54" s="153"/>
-      <c r="AG54" s="153"/>
-      <c r="AH54" s="153"/>
-      <c r="AI54" s="153"/>
-      <c r="AJ54" s="153"/>
-      <c r="AK54" s="153"/>
-      <c r="AL54" s="153"/>
-      <c r="AM54" s="153"/>
-      <c r="AN54" s="153"/>
-      <c r="AO54" s="153"/>
-      <c r="AP54" s="153"/>
-      <c r="AQ54" s="154"/>
-      <c r="AR54" s="136"/>
+      <c r="L54" s="108"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="132"/>
+      <c r="O54" s="132"/>
+      <c r="P54" s="132"/>
+      <c r="Q54" s="132"/>
+      <c r="R54" s="132"/>
+      <c r="S54" s="132"/>
+      <c r="T54" s="132"/>
+      <c r="U54" s="132"/>
+      <c r="V54" s="132"/>
+      <c r="W54" s="132"/>
+      <c r="X54" s="132"/>
+      <c r="Y54" s="132"/>
+      <c r="Z54" s="132"/>
+      <c r="AA54" s="132"/>
+      <c r="AB54" s="132"/>
+      <c r="AC54" s="132"/>
+      <c r="AD54" s="132"/>
+      <c r="AE54" s="132"/>
+      <c r="AF54" s="132"/>
+      <c r="AG54" s="132"/>
+      <c r="AH54" s="132"/>
+      <c r="AI54" s="132"/>
+      <c r="AJ54" s="132"/>
+      <c r="AK54" s="132"/>
+      <c r="AL54" s="132"/>
+      <c r="AM54" s="132"/>
+      <c r="AN54" s="132"/>
+      <c r="AO54" s="132"/>
+      <c r="AP54" s="132"/>
+      <c r="AQ54" s="133"/>
+      <c r="AR54" s="108"/>
       <c r="AS54" s="75"/>
       <c r="AT54" s="75"/>
       <c r="AU54" s="75"/>
@@ -6875,14 +6875,14 @@
       <c r="AX54" s="75"/>
       <c r="AY54" s="75"/>
       <c r="AZ54" s="29"/>
-      <c r="BA54" s="145"/>
+      <c r="BA54" s="110"/>
       <c r="BE54" s="83"/>
     </row>
-    <row r="55" spans="1:57" s="65" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57" s="65" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="144"/>
+      <c r="B55" s="124"/>
       <c r="C55" s="30"/>
       <c r="D55" s="75"/>
       <c r="E55" s="78"/>
@@ -6892,7 +6892,7 @@
       <c r="I55" s="79"/>
       <c r="J55" s="79"/>
       <c r="K55" s="75"/>
-      <c r="L55" s="136"/>
+      <c r="L55" s="108"/>
       <c r="M55" s="75"/>
       <c r="N55" s="75"/>
       <c r="O55" s="75"/>
@@ -6924,7 +6924,7 @@
       <c r="AO55" s="75"/>
       <c r="AP55" s="75"/>
       <c r="AQ55" s="75"/>
-      <c r="AR55" s="136"/>
+      <c r="AR55" s="108"/>
       <c r="AS55" s="75"/>
       <c r="AT55" s="75"/>
       <c r="AU55" s="75"/>
@@ -6933,14 +6933,14 @@
       <c r="AX55" s="75"/>
       <c r="AY55" s="75"/>
       <c r="AZ55" s="29"/>
-      <c r="BA55" s="145"/>
+      <c r="BA55" s="110"/>
       <c r="BE55" s="83"/>
     </row>
-    <row r="56" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="144"/>
+      <c r="B56" s="124"/>
       <c r="C56" s="30"/>
       <c r="D56" s="75"/>
       <c r="E56" s="78"/>
@@ -6950,7 +6950,7 @@
       <c r="I56" s="79"/>
       <c r="J56" s="79"/>
       <c r="K56" s="75"/>
-      <c r="L56" s="136"/>
+      <c r="L56" s="108"/>
       <c r="M56" s="75"/>
       <c r="N56" s="75"/>
       <c r="O56" s="75"/>
@@ -6982,7 +6982,7 @@
       <c r="AO56" s="75"/>
       <c r="AP56" s="75"/>
       <c r="AQ56" s="75"/>
-      <c r="AR56" s="136"/>
+      <c r="AR56" s="108"/>
       <c r="AS56" s="75"/>
       <c r="AT56" s="75"/>
       <c r="AU56" s="75"/>
@@ -6991,14 +6991,14 @@
       <c r="AX56" s="75"/>
       <c r="AY56" s="75"/>
       <c r="AZ56" s="29"/>
-      <c r="BA56" s="145"/>
+      <c r="BA56" s="110"/>
       <c r="BE56" s="83"/>
     </row>
-    <row r="57" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="144"/>
+      <c r="B57" s="124"/>
       <c r="C57" s="30"/>
       <c r="D57" s="75"/>
       <c r="E57" s="78"/>
@@ -7008,49 +7008,49 @@
       <c r="I57" s="79"/>
       <c r="J57" s="79"/>
       <c r="K57" s="75"/>
-      <c r="L57" s="136"/>
-      <c r="M57" s="106" t="s">
+      <c r="L57" s="108"/>
+      <c r="M57" s="159" t="s">
         <v>137</v>
       </c>
-      <c r="N57" s="106"/>
-      <c r="O57" s="106"/>
-      <c r="P57" s="106"/>
-      <c r="Q57" s="106"/>
-      <c r="R57" s="106"/>
-      <c r="S57" s="107"/>
+      <c r="N57" s="159"/>
+      <c r="O57" s="159"/>
+      <c r="P57" s="159"/>
+      <c r="Q57" s="159"/>
+      <c r="R57" s="159"/>
+      <c r="S57" s="160"/>
       <c r="T57" s="84"/>
-      <c r="U57" s="105" t="s">
+      <c r="U57" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="V57" s="106"/>
-      <c r="W57" s="106"/>
-      <c r="X57" s="106"/>
-      <c r="Y57" s="107"/>
+      <c r="V57" s="159"/>
+      <c r="W57" s="159"/>
+      <c r="X57" s="159"/>
+      <c r="Y57" s="160"/>
       <c r="Z57" s="84"/>
-      <c r="AA57" s="105" t="s">
+      <c r="AA57" s="158" t="s">
         <v>139</v>
       </c>
-      <c r="AB57" s="106"/>
-      <c r="AC57" s="106"/>
-      <c r="AD57" s="106"/>
-      <c r="AE57" s="107"/>
+      <c r="AB57" s="159"/>
+      <c r="AC57" s="159"/>
+      <c r="AD57" s="159"/>
+      <c r="AE57" s="160"/>
       <c r="AF57" s="75"/>
-      <c r="AG57" s="105" t="s">
+      <c r="AG57" s="158" t="s">
         <v>140</v>
       </c>
-      <c r="AH57" s="106"/>
-      <c r="AI57" s="106"/>
-      <c r="AJ57" s="106"/>
-      <c r="AK57" s="107"/>
+      <c r="AH57" s="159"/>
+      <c r="AI57" s="159"/>
+      <c r="AJ57" s="159"/>
+      <c r="AK57" s="160"/>
       <c r="AL57" s="75"/>
-      <c r="AM57" s="105" t="s">
+      <c r="AM57" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="AN57" s="106"/>
-      <c r="AO57" s="106"/>
-      <c r="AP57" s="106"/>
-      <c r="AQ57" s="106"/>
-      <c r="AR57" s="136"/>
+      <c r="AN57" s="159"/>
+      <c r="AO57" s="159"/>
+      <c r="AP57" s="159"/>
+      <c r="AQ57" s="159"/>
+      <c r="AR57" s="108"/>
       <c r="AS57" s="75"/>
       <c r="AT57" s="75"/>
       <c r="AU57" s="75"/>
@@ -7059,14 +7059,14 @@
       <c r="AX57" s="75"/>
       <c r="AY57" s="75"/>
       <c r="AZ57" s="29"/>
-      <c r="BA57" s="145"/>
+      <c r="BA57" s="110"/>
       <c r="BE57" s="83"/>
     </row>
-    <row r="58" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="144"/>
+      <c r="B58" s="124"/>
       <c r="C58" s="30"/>
       <c r="D58" s="75"/>
       <c r="E58" s="78"/>
@@ -7076,39 +7076,39 @@
       <c r="I58" s="79"/>
       <c r="J58" s="79"/>
       <c r="K58" s="75"/>
-      <c r="L58" s="136"/>
-      <c r="M58" s="109"/>
-      <c r="N58" s="109"/>
-      <c r="O58" s="109"/>
-      <c r="P58" s="109"/>
-      <c r="Q58" s="109"/>
-      <c r="R58" s="109"/>
-      <c r="S58" s="110"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="162"/>
+      <c r="N58" s="162"/>
+      <c r="O58" s="162"/>
+      <c r="P58" s="162"/>
+      <c r="Q58" s="162"/>
+      <c r="R58" s="162"/>
+      <c r="S58" s="163"/>
       <c r="T58" s="84"/>
-      <c r="U58" s="108"/>
-      <c r="V58" s="109"/>
-      <c r="W58" s="109"/>
-      <c r="X58" s="109"/>
-      <c r="Y58" s="110"/>
+      <c r="U58" s="161"/>
+      <c r="V58" s="162"/>
+      <c r="W58" s="162"/>
+      <c r="X58" s="162"/>
+      <c r="Y58" s="163"/>
       <c r="Z58" s="84"/>
-      <c r="AA58" s="108"/>
-      <c r="AB58" s="109"/>
-      <c r="AC58" s="109"/>
-      <c r="AD58" s="109"/>
-      <c r="AE58" s="110"/>
+      <c r="AA58" s="161"/>
+      <c r="AB58" s="162"/>
+      <c r="AC58" s="162"/>
+      <c r="AD58" s="162"/>
+      <c r="AE58" s="163"/>
       <c r="AF58" s="75"/>
-      <c r="AG58" s="108"/>
-      <c r="AH58" s="109"/>
-      <c r="AI58" s="109"/>
-      <c r="AJ58" s="109"/>
-      <c r="AK58" s="110"/>
+      <c r="AG58" s="161"/>
+      <c r="AH58" s="162"/>
+      <c r="AI58" s="162"/>
+      <c r="AJ58" s="162"/>
+      <c r="AK58" s="163"/>
       <c r="AL58" s="75"/>
-      <c r="AM58" s="108"/>
-      <c r="AN58" s="109"/>
-      <c r="AO58" s="109"/>
-      <c r="AP58" s="109"/>
-      <c r="AQ58" s="109"/>
-      <c r="AR58" s="136"/>
+      <c r="AM58" s="161"/>
+      <c r="AN58" s="162"/>
+      <c r="AO58" s="162"/>
+      <c r="AP58" s="162"/>
+      <c r="AQ58" s="162"/>
+      <c r="AR58" s="108"/>
       <c r="AS58" s="75"/>
       <c r="AT58" s="75"/>
       <c r="AU58" s="75"/>
@@ -7117,14 +7117,14 @@
       <c r="AX58" s="75"/>
       <c r="AY58" s="75"/>
       <c r="AZ58" s="29"/>
-      <c r="BA58" s="145"/>
+      <c r="BA58" s="110"/>
       <c r="BE58" s="83"/>
     </row>
-    <row r="59" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="B59" s="144"/>
+      <c r="B59" s="124"/>
       <c r="C59" s="30"/>
       <c r="D59" s="75"/>
       <c r="E59" s="78"/>
@@ -7134,39 +7134,39 @@
       <c r="I59" s="79"/>
       <c r="J59" s="79"/>
       <c r="K59" s="75"/>
-      <c r="L59" s="136"/>
-      <c r="M59" s="112"/>
-      <c r="N59" s="112"/>
-      <c r="O59" s="112"/>
-      <c r="P59" s="112"/>
-      <c r="Q59" s="112"/>
-      <c r="R59" s="112"/>
-      <c r="S59" s="113"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="165"/>
+      <c r="N59" s="165"/>
+      <c r="O59" s="165"/>
+      <c r="P59" s="165"/>
+      <c r="Q59" s="165"/>
+      <c r="R59" s="165"/>
+      <c r="S59" s="166"/>
       <c r="T59" s="84"/>
-      <c r="U59" s="111"/>
-      <c r="V59" s="112"/>
-      <c r="W59" s="112"/>
-      <c r="X59" s="112"/>
-      <c r="Y59" s="113"/>
+      <c r="U59" s="164"/>
+      <c r="V59" s="165"/>
+      <c r="W59" s="165"/>
+      <c r="X59" s="165"/>
+      <c r="Y59" s="166"/>
       <c r="Z59" s="84"/>
-      <c r="AA59" s="111"/>
-      <c r="AB59" s="112"/>
-      <c r="AC59" s="112"/>
-      <c r="AD59" s="112"/>
-      <c r="AE59" s="113"/>
+      <c r="AA59" s="164"/>
+      <c r="AB59" s="165"/>
+      <c r="AC59" s="165"/>
+      <c r="AD59" s="165"/>
+      <c r="AE59" s="166"/>
       <c r="AF59" s="75"/>
-      <c r="AG59" s="111"/>
-      <c r="AH59" s="112"/>
-      <c r="AI59" s="112"/>
-      <c r="AJ59" s="112"/>
-      <c r="AK59" s="113"/>
+      <c r="AG59" s="164"/>
+      <c r="AH59" s="165"/>
+      <c r="AI59" s="165"/>
+      <c r="AJ59" s="165"/>
+      <c r="AK59" s="166"/>
       <c r="AL59" s="75"/>
-      <c r="AM59" s="111"/>
-      <c r="AN59" s="112"/>
-      <c r="AO59" s="112"/>
-      <c r="AP59" s="112"/>
-      <c r="AQ59" s="112"/>
-      <c r="AR59" s="136"/>
+      <c r="AM59" s="164"/>
+      <c r="AN59" s="165"/>
+      <c r="AO59" s="165"/>
+      <c r="AP59" s="165"/>
+      <c r="AQ59" s="165"/>
+      <c r="AR59" s="108"/>
       <c r="AS59" s="75"/>
       <c r="AT59" s="75"/>
       <c r="AU59" s="75"/>
@@ -7175,14 +7175,14 @@
       <c r="AX59" s="75"/>
       <c r="AY59" s="75"/>
       <c r="AZ59" s="29"/>
-      <c r="BA59" s="145"/>
+      <c r="BA59" s="110"/>
       <c r="BE59" s="83"/>
     </row>
-    <row r="60" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="144"/>
+      <c r="B60" s="124"/>
       <c r="C60" s="30"/>
       <c r="D60" s="75"/>
       <c r="E60" s="78"/>
@@ -7192,39 +7192,39 @@
       <c r="I60" s="79"/>
       <c r="J60" s="79"/>
       <c r="K60" s="75"/>
-      <c r="L60" s="136"/>
-      <c r="M60" s="115"/>
-      <c r="N60" s="115"/>
-      <c r="O60" s="115"/>
-      <c r="P60" s="115"/>
-      <c r="Q60" s="115"/>
-      <c r="R60" s="115"/>
-      <c r="S60" s="116"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="112"/>
+      <c r="N60" s="112"/>
+      <c r="O60" s="112"/>
+      <c r="P60" s="112"/>
+      <c r="Q60" s="112"/>
+      <c r="R60" s="112"/>
+      <c r="S60" s="113"/>
       <c r="T60" s="75"/>
-      <c r="U60" s="114"/>
-      <c r="V60" s="115"/>
-      <c r="W60" s="115"/>
-      <c r="X60" s="115"/>
-      <c r="Y60" s="116"/>
+      <c r="U60" s="111"/>
+      <c r="V60" s="112"/>
+      <c r="W60" s="112"/>
+      <c r="X60" s="112"/>
+      <c r="Y60" s="113"/>
       <c r="Z60" s="75"/>
-      <c r="AA60" s="114"/>
-      <c r="AB60" s="115"/>
-      <c r="AC60" s="115"/>
-      <c r="AD60" s="115"/>
-      <c r="AE60" s="116"/>
+      <c r="AA60" s="111"/>
+      <c r="AB60" s="112"/>
+      <c r="AC60" s="112"/>
+      <c r="AD60" s="112"/>
+      <c r="AE60" s="113"/>
       <c r="AF60" s="75"/>
-      <c r="AG60" s="114"/>
-      <c r="AH60" s="115"/>
-      <c r="AI60" s="115"/>
-      <c r="AJ60" s="115"/>
-      <c r="AK60" s="116"/>
+      <c r="AG60" s="111"/>
+      <c r="AH60" s="112"/>
+      <c r="AI60" s="112"/>
+      <c r="AJ60" s="112"/>
+      <c r="AK60" s="113"/>
       <c r="AL60" s="75"/>
-      <c r="AM60" s="114"/>
-      <c r="AN60" s="115"/>
-      <c r="AO60" s="115"/>
-      <c r="AP60" s="115"/>
-      <c r="AQ60" s="115"/>
-      <c r="AR60" s="136"/>
+      <c r="AM60" s="111"/>
+      <c r="AN60" s="112"/>
+      <c r="AO60" s="112"/>
+      <c r="AP60" s="112"/>
+      <c r="AQ60" s="112"/>
+      <c r="AR60" s="108"/>
       <c r="AS60" s="75"/>
       <c r="AT60" s="75"/>
       <c r="AU60" s="75"/>
@@ -7233,14 +7233,14 @@
       <c r="AX60" s="75"/>
       <c r="AY60" s="75"/>
       <c r="AZ60" s="29"/>
-      <c r="BA60" s="145"/>
+      <c r="BA60" s="110"/>
       <c r="BE60" s="83"/>
     </row>
-    <row r="61" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="B61" s="144"/>
+      <c r="B61" s="124"/>
       <c r="C61" s="30"/>
       <c r="D61" s="75"/>
       <c r="E61" s="78"/>
@@ -7250,7 +7250,7 @@
       <c r="I61" s="79"/>
       <c r="J61" s="79"/>
       <c r="K61" s="75"/>
-      <c r="L61" s="136"/>
+      <c r="L61" s="108"/>
       <c r="M61" s="117"/>
       <c r="P61" s="12">
         <v>4</v>
@@ -7268,7 +7268,7 @@
       <c r="W61" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="X61" s="141"/>
+      <c r="X61" s="121"/>
       <c r="Y61" s="117"/>
       <c r="Z61" s="89"/>
       <c r="AA61" s="117"/>
@@ -7288,7 +7288,7 @@
       <c r="AI61" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AJ61" s="141"/>
+      <c r="AJ61" s="121"/>
       <c r="AK61" s="117"/>
       <c r="AL61" s="75"/>
       <c r="AM61" s="67"/>
@@ -7298,9 +7298,9 @@
       <c r="AO61" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AP61" s="141"/>
+      <c r="AP61" s="121"/>
       <c r="AQ61" s="63"/>
-      <c r="AR61" s="136"/>
+      <c r="AR61" s="108"/>
       <c r="AS61" s="75"/>
       <c r="AT61" s="75"/>
       <c r="AU61" s="75"/>
@@ -7309,14 +7309,14 @@
       <c r="AX61" s="75"/>
       <c r="AY61" s="75"/>
       <c r="AZ61" s="29"/>
-      <c r="BA61" s="145"/>
+      <c r="BA61" s="110"/>
       <c r="BE61" s="83"/>
     </row>
-    <row r="62" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="144"/>
+      <c r="B62" s="124"/>
       <c r="C62" s="30"/>
       <c r="D62" s="75"/>
       <c r="E62" s="78"/>
@@ -7326,7 +7326,7 @@
       <c r="I62" s="79"/>
       <c r="J62" s="79"/>
       <c r="K62" s="75"/>
-      <c r="L62" s="136"/>
+      <c r="L62" s="108"/>
       <c r="M62" s="118"/>
       <c r="P62" s="1" t="s">
         <v>30</v>
@@ -7386,7 +7386,7 @@
         <v>32</v>
       </c>
       <c r="AQ62" s="64"/>
-      <c r="AR62" s="136"/>
+      <c r="AR62" s="108"/>
       <c r="AS62" s="75"/>
       <c r="AT62" s="75"/>
       <c r="AU62" s="75"/>
@@ -7395,14 +7395,14 @@
       <c r="AX62" s="75"/>
       <c r="AY62" s="75"/>
       <c r="AZ62" s="29"/>
-      <c r="BA62" s="145"/>
+      <c r="BA62" s="110"/>
       <c r="BE62" s="83"/>
     </row>
-    <row r="63" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="144"/>
+      <c r="B63" s="124"/>
       <c r="C63" s="30"/>
       <c r="D63" s="75"/>
       <c r="E63" s="78"/>
@@ -7412,9 +7412,9 @@
       <c r="I63" s="79"/>
       <c r="J63" s="79"/>
       <c r="K63" s="75"/>
-      <c r="L63" s="136"/>
+      <c r="L63" s="108"/>
       <c r="M63" s="118"/>
-      <c r="P63" s="102" t="s">
+      <c r="P63" s="114" t="s">
         <v>148</v>
       </c>
       <c r="Q63" s="7" t="str">
@@ -7427,7 +7427,7 @@
       <c r="S63" s="118"/>
       <c r="T63" s="75"/>
       <c r="U63" s="118"/>
-      <c r="V63" s="102" t="s">
+      <c r="V63" s="114" t="s">
         <v>149</v>
       </c>
       <c r="W63" s="7" t="str">
@@ -7440,7 +7440,7 @@
       <c r="Y63" s="118"/>
       <c r="Z63" s="66"/>
       <c r="AA63" s="118"/>
-      <c r="AB63" s="102" t="s">
+      <c r="AB63" s="114" t="s">
         <v>150</v>
       </c>
       <c r="AC63" s="13" t="str">
@@ -7453,7 +7453,7 @@
       <c r="AE63" s="118"/>
       <c r="AF63" s="75"/>
       <c r="AG63" s="118"/>
-      <c r="AH63" s="102" t="s">
+      <c r="AH63" s="114" t="s">
         <v>151</v>
       </c>
       <c r="AI63" s="7" t="str">
@@ -7466,7 +7466,7 @@
       <c r="AK63" s="118"/>
       <c r="AL63" s="75"/>
       <c r="AM63" s="62"/>
-      <c r="AN63" s="102" t="s">
+      <c r="AN63" s="114" t="s">
         <v>152</v>
       </c>
       <c r="AO63" s="7" t="str">
@@ -7477,7 +7477,7 @@
         <v>35</v>
       </c>
       <c r="AQ63" s="64"/>
-      <c r="AR63" s="136"/>
+      <c r="AR63" s="108"/>
       <c r="AS63" s="75"/>
       <c r="AT63" s="75"/>
       <c r="AU63" s="75"/>
@@ -7486,14 +7486,14 @@
       <c r="AX63" s="75"/>
       <c r="AY63" s="75"/>
       <c r="AZ63" s="29"/>
-      <c r="BA63" s="145"/>
+      <c r="BA63" s="110"/>
       <c r="BE63" s="83"/>
     </row>
-    <row r="64" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="144"/>
+      <c r="B64" s="124"/>
       <c r="C64" s="30"/>
       <c r="D64" s="75"/>
       <c r="E64" s="78"/>
@@ -7503,9 +7503,9 @@
       <c r="I64" s="79"/>
       <c r="J64" s="79"/>
       <c r="K64" s="75"/>
-      <c r="L64" s="136"/>
+      <c r="L64" s="108"/>
       <c r="M64" s="118"/>
-      <c r="P64" s="103"/>
+      <c r="P64" s="115"/>
       <c r="Q64" s="8" t="str">
         <f>IF(ISBLANK($R$35),"E3",$R$35)</f>
         <v>Flo</v>
@@ -7516,7 +7516,7 @@
       <c r="S64" s="118"/>
       <c r="T64" s="75"/>
       <c r="U64" s="118"/>
-      <c r="V64" s="103"/>
+      <c r="V64" s="115"/>
       <c r="W64" s="8" t="str">
         <f>IF(ISBLANK($R$72),"Q2",$R$72)</f>
         <v>Kikozu</v>
@@ -7527,7 +7527,7 @@
       <c r="Y64" s="118"/>
       <c r="Z64" s="66"/>
       <c r="AA64" s="118"/>
-      <c r="AB64" s="103"/>
+      <c r="AB64" s="115"/>
       <c r="AC64" s="14" t="str">
         <f>IF(ISBLANK($X$68),"T2",$X$68)</f>
         <v>LeCed</v>
@@ -7538,7 +7538,7 @@
       <c r="AE64" s="118"/>
       <c r="AF64" s="75"/>
       <c r="AG64" s="118"/>
-      <c r="AH64" s="103"/>
+      <c r="AH64" s="115"/>
       <c r="AI64" s="8" t="str">
         <f>IF(ISBLANK($AD$68),"X2",$AD$68)</f>
         <v>Ioupy</v>
@@ -7549,7 +7549,7 @@
       <c r="AK64" s="118"/>
       <c r="AL64" s="75"/>
       <c r="AM64" s="62"/>
-      <c r="AN64" s="103"/>
+      <c r="AN64" s="115"/>
       <c r="AO64" s="8" t="str">
         <f>IF(ISBLANK($AJ$67),"AA1",$AJ$67)</f>
         <v>Bastien</v>
@@ -7558,7 +7558,7 @@
         <v>50</v>
       </c>
       <c r="AQ64" s="64"/>
-      <c r="AR64" s="136"/>
+      <c r="AR64" s="108"/>
       <c r="AS64" s="75"/>
       <c r="AT64" s="75"/>
       <c r="AU64" s="75"/>
@@ -7567,14 +7567,14 @@
       <c r="AX64" s="75"/>
       <c r="AY64" s="75"/>
       <c r="AZ64" s="29"/>
-      <c r="BA64" s="145"/>
+      <c r="BA64" s="110"/>
       <c r="BE64" s="83"/>
     </row>
-    <row r="65" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="144"/>
+      <c r="B65" s="124"/>
       <c r="C65" s="30"/>
       <c r="D65" s="75"/>
       <c r="E65" s="78"/>
@@ -7584,9 +7584,9 @@
       <c r="I65" s="79"/>
       <c r="J65" s="79"/>
       <c r="K65" s="75"/>
-      <c r="L65" s="136"/>
+      <c r="L65" s="108"/>
       <c r="M65" s="118"/>
-      <c r="P65" s="103"/>
+      <c r="P65" s="115"/>
       <c r="Q65" s="8" t="str">
         <f>IF(ISBLANK($R$24),"B4",$R$24)</f>
         <v>Qinmao</v>
@@ -7597,7 +7597,7 @@
       <c r="S65" s="118"/>
       <c r="T65" s="75"/>
       <c r="U65" s="118"/>
-      <c r="V65" s="103"/>
+      <c r="V65" s="115"/>
       <c r="W65" s="8" t="str">
         <f>IF(ISBLANK($X$19),"I3",$X$19)</f>
         <v>Kassys</v>
@@ -7608,7 +7608,7 @@
       <c r="Y65" s="118"/>
       <c r="Z65" s="66"/>
       <c r="AA65" s="118"/>
-      <c r="AB65" s="103"/>
+      <c r="AB65" s="115"/>
       <c r="AC65" s="8" t="str">
         <f>IF(ISBLANK($X$72),"U2",$X$72)</f>
         <v>SquidGame</v>
@@ -7619,7 +7619,7 @@
       <c r="AE65" s="118"/>
       <c r="AF65" s="75"/>
       <c r="AG65" s="118"/>
-      <c r="AH65" s="103"/>
+      <c r="AH65" s="115"/>
       <c r="AI65" s="8" t="str">
         <f>IF(ISBLANK($AD$72),"Y2",$AD$72)</f>
         <v>Mimolette</v>
@@ -7630,7 +7630,7 @@
       <c r="AK65" s="118"/>
       <c r="AL65" s="75"/>
       <c r="AM65" s="62"/>
-      <c r="AN65" s="103"/>
+      <c r="AN65" s="115"/>
       <c r="AO65" s="8" t="str">
         <f>IF(ISBLANK($AJ$64),"Z2",$AJ$64)</f>
         <v>Kassys</v>
@@ -7639,7 +7639,7 @@
         <v>40</v>
       </c>
       <c r="AQ65" s="64"/>
-      <c r="AR65" s="136"/>
+      <c r="AR65" s="108"/>
       <c r="AS65" s="75"/>
       <c r="AT65" s="75"/>
       <c r="AU65" s="75"/>
@@ -7648,14 +7648,14 @@
       <c r="AX65" s="75"/>
       <c r="AY65" s="75"/>
       <c r="AZ65" s="29"/>
-      <c r="BA65" s="145"/>
+      <c r="BA65" s="110"/>
       <c r="BE65" s="83"/>
     </row>
-    <row r="66" spans="1:57" s="65" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:57" s="65" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="144"/>
+      <c r="B66" s="124"/>
       <c r="C66" s="30"/>
       <c r="D66" s="75"/>
       <c r="E66" s="78"/>
@@ -7665,9 +7665,9 @@
       <c r="I66" s="79"/>
       <c r="J66" s="79"/>
       <c r="K66" s="75"/>
-      <c r="L66" s="136"/>
+      <c r="L66" s="108"/>
       <c r="M66" s="118"/>
-      <c r="P66" s="104"/>
+      <c r="P66" s="116"/>
       <c r="Q66" s="8" t="str">
         <f>IF(ISBLANK($R$40),"F4",$R$40)</f>
         <v>MinecraftKing</v>
@@ -7678,7 +7678,7 @@
       <c r="S66" s="118"/>
       <c r="T66" s="75"/>
       <c r="U66" s="118"/>
-      <c r="V66" s="104"/>
+      <c r="V66" s="116"/>
       <c r="W66" s="8" t="str">
         <f>IF(ISBLANK($X$32),"L4",$X$32)</f>
         <v>Ioupy</v>
@@ -7689,7 +7689,7 @@
       <c r="Y66" s="118"/>
       <c r="Z66" s="66"/>
       <c r="AA66" s="118"/>
-      <c r="AB66" s="104"/>
+      <c r="AB66" s="116"/>
       <c r="AC66" s="8" t="str">
         <f>IF(ISBLANK($AD$19),"M3",$AD$19)</f>
         <v>Charasime</v>
@@ -7700,7 +7700,7 @@
       <c r="AE66" s="118"/>
       <c r="AF66" s="76"/>
       <c r="AG66" s="118"/>
-      <c r="AH66" s="104"/>
+      <c r="AH66" s="116"/>
       <c r="AI66" s="8" t="str">
         <f>IF(ISBLANK($AJ$19),"WF3",$AJ$19)</f>
         <v>rouxblart</v>
@@ -7711,7 +7711,7 @@
       <c r="AK66" s="118"/>
       <c r="AL66" s="75"/>
       <c r="AM66" s="62"/>
-      <c r="AN66" s="104"/>
+      <c r="AN66" s="116"/>
       <c r="AO66" s="8" t="str">
         <f>IF(ISBLANK($AJ$68),"AA2",$AJ$68)</f>
         <v>GoGu</v>
@@ -7720,7 +7720,7 @@
         <v>47</v>
       </c>
       <c r="AQ66" s="64"/>
-      <c r="AR66" s="136"/>
+      <c r="AR66" s="108"/>
       <c r="AS66" s="75"/>
       <c r="AT66" s="75"/>
       <c r="AU66" s="75"/>
@@ -7729,14 +7729,14 @@
       <c r="AX66" s="75"/>
       <c r="AY66" s="75"/>
       <c r="AZ66" s="29"/>
-      <c r="BA66" s="145"/>
+      <c r="BA66" s="110"/>
       <c r="BE66" s="83"/>
     </row>
-    <row r="67" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="144"/>
+      <c r="B67" s="124"/>
       <c r="C67" s="30"/>
       <c r="D67" s="75"/>
       <c r="E67" s="78"/>
@@ -7746,9 +7746,9 @@
       <c r="I67" s="79"/>
       <c r="J67" s="79"/>
       <c r="K67" s="75"/>
-      <c r="L67" s="136"/>
+      <c r="L67" s="108"/>
       <c r="M67" s="118"/>
-      <c r="P67" s="102" t="s">
+      <c r="P67" s="114" t="s">
         <v>157</v>
       </c>
       <c r="Q67" s="7" t="str">
@@ -7761,7 +7761,7 @@
       <c r="S67" s="118"/>
       <c r="T67" s="75"/>
       <c r="U67" s="118"/>
-      <c r="V67" s="102" t="s">
+      <c r="V67" s="114" t="s">
         <v>158</v>
       </c>
       <c r="W67" s="7" t="str">
@@ -7774,7 +7774,7 @@
       <c r="Y67" s="118"/>
       <c r="Z67" s="66"/>
       <c r="AA67" s="118"/>
-      <c r="AB67" s="102" t="s">
+      <c r="AB67" s="114" t="s">
         <v>159</v>
       </c>
       <c r="AC67" s="13" t="str">
@@ -7787,7 +7787,7 @@
       <c r="AE67" s="118"/>
       <c r="AF67" s="76"/>
       <c r="AG67" s="118"/>
-      <c r="AH67" s="102" t="s">
+      <c r="AH67" s="114" t="s">
         <v>160</v>
       </c>
       <c r="AI67" s="7" t="str">
@@ -7799,12 +7799,12 @@
       </c>
       <c r="AK67" s="118"/>
       <c r="AL67" s="75"/>
-      <c r="AM67" s="114"/>
-      <c r="AN67" s="115"/>
-      <c r="AO67" s="115"/>
-      <c r="AP67" s="115"/>
-      <c r="AQ67" s="115"/>
-      <c r="AR67" s="136"/>
+      <c r="AM67" s="111"/>
+      <c r="AN67" s="112"/>
+      <c r="AO67" s="112"/>
+      <c r="AP67" s="112"/>
+      <c r="AQ67" s="112"/>
+      <c r="AR67" s="108"/>
       <c r="AS67" s="75"/>
       <c r="AT67" s="75"/>
       <c r="AU67" s="75"/>
@@ -7813,14 +7813,14 @@
       <c r="AX67" s="75"/>
       <c r="AY67" s="75"/>
       <c r="AZ67" s="29"/>
-      <c r="BA67" s="145"/>
+      <c r="BA67" s="110"/>
       <c r="BE67" s="83"/>
     </row>
-    <row r="68" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="B68" s="144"/>
+      <c r="B68" s="124"/>
       <c r="C68" s="30"/>
       <c r="D68" s="75"/>
       <c r="E68" s="78"/>
@@ -7830,9 +7830,9 @@
       <c r="I68" s="79"/>
       <c r="J68" s="79"/>
       <c r="K68" s="75"/>
-      <c r="L68" s="136"/>
+      <c r="L68" s="108"/>
       <c r="M68" s="118"/>
-      <c r="P68" s="103"/>
+      <c r="P68" s="115"/>
       <c r="Q68" s="8" t="str">
         <f>IF(ISBLANK($R$39),"F3",$R$39)</f>
         <v>Ishigami</v>
@@ -7843,7 +7843,7 @@
       <c r="S68" s="118"/>
       <c r="T68" s="75"/>
       <c r="U68" s="118"/>
-      <c r="V68" s="103"/>
+      <c r="V68" s="115"/>
       <c r="W68" s="8" t="str">
         <f>IF(ISBLANK($R$68),"P2",$R$68)</f>
         <v>Maetona</v>
@@ -7854,7 +7854,7 @@
       <c r="Y68" s="118"/>
       <c r="Z68" s="66"/>
       <c r="AA68" s="118"/>
-      <c r="AB68" s="103"/>
+      <c r="AB68" s="115"/>
       <c r="AC68" s="14" t="str">
         <f>IF(ISBLANK($X$64),"S2",$X$64)</f>
         <v>Ioupy</v>
@@ -7865,7 +7865,7 @@
       <c r="AE68" s="118"/>
       <c r="AF68" s="76"/>
       <c r="AG68" s="118"/>
-      <c r="AH68" s="103"/>
+      <c r="AH68" s="115"/>
       <c r="AI68" s="8" t="str">
         <f>IF(ISBLANK($AD$71),"Y1",$AD$71)</f>
         <v>Arthur</v>
@@ -7880,7 +7880,7 @@
       <c r="AO68" s="66"/>
       <c r="AP68" s="80"/>
       <c r="AQ68" s="75"/>
-      <c r="AR68" s="136"/>
+      <c r="AR68" s="108"/>
       <c r="AS68" s="75"/>
       <c r="AT68" s="75"/>
       <c r="AU68" s="75"/>
@@ -7889,14 +7889,14 @@
       <c r="AX68" s="75"/>
       <c r="AY68" s="75"/>
       <c r="AZ68" s="29"/>
-      <c r="BA68" s="145"/>
+      <c r="BA68" s="110"/>
       <c r="BE68" s="83"/>
     </row>
-    <row r="69" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="B69" s="144"/>
+      <c r="B69" s="124"/>
       <c r="C69" s="30"/>
       <c r="D69" s="75"/>
       <c r="E69" s="78"/>
@@ -7906,9 +7906,9 @@
       <c r="I69" s="79"/>
       <c r="J69" s="79"/>
       <c r="K69" s="75"/>
-      <c r="L69" s="136"/>
+      <c r="L69" s="108"/>
       <c r="M69" s="118"/>
-      <c r="P69" s="103"/>
+      <c r="P69" s="115"/>
       <c r="Q69" s="8" t="str">
         <f>IF(ISBLANK($R$28),"C4",$R$28)</f>
         <v>Stravinsky</v>
@@ -7919,7 +7919,7 @@
       <c r="S69" s="118"/>
       <c r="T69" s="75"/>
       <c r="U69" s="118"/>
-      <c r="V69" s="103"/>
+      <c r="V69" s="115"/>
       <c r="W69" s="8" t="str">
         <f>IF(ISBLANK($X$31),"L3",$X$31)</f>
         <v>LeCed</v>
@@ -7930,7 +7930,7 @@
       <c r="Y69" s="118"/>
       <c r="Z69" s="66"/>
       <c r="AA69" s="118"/>
-      <c r="AB69" s="103"/>
+      <c r="AB69" s="115"/>
       <c r="AC69" s="8" t="str">
         <f>IF(ISBLANK($X$76),"V2",$X$76)</f>
         <v>Flo</v>
@@ -7941,7 +7941,7 @@
       <c r="AE69" s="118"/>
       <c r="AF69" s="76"/>
       <c r="AG69" s="118"/>
-      <c r="AH69" s="103"/>
+      <c r="AH69" s="115"/>
       <c r="AI69" s="8" t="str">
         <f>IF(ISBLANK($AD$64),"W2",$AD$64)</f>
         <v>Charasime</v>
@@ -7956,7 +7956,7 @@
       <c r="AO69" s="66"/>
       <c r="AP69" s="80"/>
       <c r="AQ69" s="75"/>
-      <c r="AR69" s="136"/>
+      <c r="AR69" s="108"/>
       <c r="AS69" s="75"/>
       <c r="AT69" s="75"/>
       <c r="AU69" s="75"/>
@@ -7965,14 +7965,14 @@
       <c r="AX69" s="75"/>
       <c r="AY69" s="75"/>
       <c r="AZ69" s="29"/>
-      <c r="BA69" s="145"/>
+      <c r="BA69" s="110"/>
       <c r="BE69" s="83"/>
     </row>
-    <row r="70" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="144"/>
+      <c r="B70" s="124"/>
       <c r="C70" s="30"/>
       <c r="D70" s="75"/>
       <c r="E70" s="78"/>
@@ -7982,9 +7982,9 @@
       <c r="I70" s="79"/>
       <c r="J70" s="79"/>
       <c r="K70" s="75"/>
-      <c r="L70" s="136"/>
+      <c r="L70" s="108"/>
       <c r="M70" s="118"/>
-      <c r="P70" s="104"/>
+      <c r="P70" s="116"/>
       <c r="Q70" s="8" t="str">
         <f>IF(ISBLANK($R$44),"G4",$R$44)</f>
         <v>Maetona</v>
@@ -7995,7 +7995,7 @@
       <c r="S70" s="118"/>
       <c r="T70" s="75"/>
       <c r="U70" s="118"/>
-      <c r="V70" s="104"/>
+      <c r="V70" s="116"/>
       <c r="W70" s="9" t="str">
         <f>IF(ISBLANK($X$20),"I4",$X$20)</f>
         <v>TheDude</v>
@@ -8006,7 +8006,7 @@
       <c r="Y70" s="118"/>
       <c r="Z70" s="66"/>
       <c r="AA70" s="118"/>
-      <c r="AB70" s="104"/>
+      <c r="AB70" s="116"/>
       <c r="AC70" s="8" t="str">
         <f>IF(ISBLANK($AD$23),"N3",$AD$23)</f>
         <v>GoGu</v>
@@ -8017,7 +8017,7 @@
       <c r="AE70" s="118"/>
       <c r="AF70" s="76"/>
       <c r="AG70" s="118"/>
-      <c r="AH70" s="104"/>
+      <c r="AH70" s="116"/>
       <c r="AI70" s="8" t="str">
         <f>IF(ISBLANK($AJ$20),"WF4",$AJ$20)</f>
         <v>Bastien</v>
@@ -8032,7 +8032,7 @@
       <c r="AO70" s="66"/>
       <c r="AP70" s="80"/>
       <c r="AQ70" s="75"/>
-      <c r="AR70" s="136"/>
+      <c r="AR70" s="108"/>
       <c r="AS70" s="75"/>
       <c r="AT70" s="75"/>
       <c r="AU70" s="75"/>
@@ -8041,14 +8041,14 @@
       <c r="AX70" s="75"/>
       <c r="AY70" s="75"/>
       <c r="AZ70" s="29"/>
-      <c r="BA70" s="145"/>
+      <c r="BA70" s="110"/>
       <c r="BE70" s="83"/>
     </row>
-    <row r="71" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="144"/>
+      <c r="B71" s="124"/>
       <c r="C71" s="30"/>
       <c r="D71" s="75"/>
       <c r="E71" s="78"/>
@@ -8058,9 +8058,9 @@
       <c r="I71" s="79"/>
       <c r="J71" s="79"/>
       <c r="K71" s="75"/>
-      <c r="L71" s="136"/>
+      <c r="L71" s="108"/>
       <c r="M71" s="118"/>
-      <c r="P71" s="102" t="s">
+      <c r="P71" s="114" t="s">
         <v>165</v>
       </c>
       <c r="Q71" s="7" t="str">
@@ -8073,7 +8073,7 @@
       <c r="S71" s="118"/>
       <c r="T71" s="75"/>
       <c r="U71" s="118"/>
-      <c r="V71" s="102" t="s">
+      <c r="V71" s="114" t="s">
         <v>166</v>
       </c>
       <c r="W71" s="7" t="str">
@@ -8086,7 +8086,7 @@
       <c r="Y71" s="118"/>
       <c r="Z71" s="75"/>
       <c r="AA71" s="118"/>
-      <c r="AB71" s="102" t="s">
+      <c r="AB71" s="114" t="s">
         <v>167</v>
       </c>
       <c r="AC71" s="13" t="str">
@@ -8098,18 +8098,18 @@
       </c>
       <c r="AE71" s="118"/>
       <c r="AF71" s="76"/>
-      <c r="AG71" s="114"/>
-      <c r="AH71" s="115"/>
-      <c r="AI71" s="115"/>
-      <c r="AJ71" s="115"/>
-      <c r="AK71" s="116"/>
+      <c r="AG71" s="111"/>
+      <c r="AH71" s="112"/>
+      <c r="AI71" s="112"/>
+      <c r="AJ71" s="112"/>
+      <c r="AK71" s="113"/>
       <c r="AL71" s="75"/>
       <c r="AM71" s="75"/>
       <c r="AN71" s="75"/>
       <c r="AO71" s="75"/>
       <c r="AP71" s="75"/>
       <c r="AQ71" s="75"/>
-      <c r="AR71" s="136"/>
+      <c r="AR71" s="108"/>
       <c r="AS71" s="75"/>
       <c r="AT71" s="75"/>
       <c r="AU71" s="75"/>
@@ -8118,14 +8118,14 @@
       <c r="AX71" s="75"/>
       <c r="AY71" s="75"/>
       <c r="AZ71" s="29"/>
-      <c r="BA71" s="145"/>
+      <c r="BA71" s="110"/>
       <c r="BE71" s="83"/>
     </row>
-    <row r="72" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="B72" s="144"/>
+      <c r="B72" s="124"/>
       <c r="C72" s="30"/>
       <c r="D72" s="75"/>
       <c r="E72" s="78"/>
@@ -8135,9 +8135,9 @@
       <c r="I72" s="79"/>
       <c r="J72" s="79"/>
       <c r="K72" s="75"/>
-      <c r="L72" s="136"/>
+      <c r="L72" s="108"/>
       <c r="M72" s="118"/>
-      <c r="P72" s="103"/>
+      <c r="P72" s="115"/>
       <c r="Q72" s="8" t="str">
         <f>IF(ISBLANK($R$43),"G3",$R$43)</f>
         <v>Kikozu</v>
@@ -8148,7 +8148,7 @@
       <c r="S72" s="118"/>
       <c r="T72" s="75"/>
       <c r="U72" s="118"/>
-      <c r="V72" s="103"/>
+      <c r="V72" s="115"/>
       <c r="W72" s="8" t="str">
         <f>IF(ISBLANK($R$76),"R2",$R$76)</f>
         <v>SquidGame</v>
@@ -8159,7 +8159,7 @@
       <c r="Y72" s="118"/>
       <c r="Z72" s="75"/>
       <c r="AA72" s="118"/>
-      <c r="AB72" s="103"/>
+      <c r="AB72" s="115"/>
       <c r="AC72" s="14" t="str">
         <f>IF(ISBLANK($X$75),"V1",$X$75)</f>
         <v>Clemclou</v>
@@ -8180,7 +8180,7 @@
       <c r="AO72" s="75"/>
       <c r="AP72" s="75"/>
       <c r="AQ72" s="75"/>
-      <c r="AR72" s="136"/>
+      <c r="AR72" s="108"/>
       <c r="AS72" s="75"/>
       <c r="AT72" s="75"/>
       <c r="AU72" s="75"/>
@@ -8189,14 +8189,14 @@
       <c r="AX72" s="75"/>
       <c r="AY72" s="75"/>
       <c r="AZ72" s="29"/>
-      <c r="BA72" s="145"/>
+      <c r="BA72" s="110"/>
       <c r="BE72" s="83"/>
     </row>
-    <row r="73" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="144"/>
+      <c r="B73" s="124"/>
       <c r="C73" s="30"/>
       <c r="D73" s="75"/>
       <c r="E73" s="78"/>
@@ -8206,9 +8206,9 @@
       <c r="I73" s="79"/>
       <c r="J73" s="79"/>
       <c r="K73" s="75"/>
-      <c r="L73" s="136"/>
+      <c r="L73" s="108"/>
       <c r="M73" s="118"/>
-      <c r="P73" s="103"/>
+      <c r="P73" s="115"/>
       <c r="Q73" s="8" t="str">
         <f>IF(ISBLANK($R$32),"D4",$R$32)</f>
         <v>Illustrator</v>
@@ -8219,7 +8219,7 @@
       <c r="S73" s="118"/>
       <c r="T73" s="75"/>
       <c r="U73" s="118"/>
-      <c r="V73" s="103"/>
+      <c r="V73" s="115"/>
       <c r="W73" s="8" t="str">
         <f>IF(ISBLANK($X$23),"J3",$X$23)</f>
         <v>Bastian</v>
@@ -8230,7 +8230,7 @@
       <c r="Y73" s="118"/>
       <c r="Z73" s="75"/>
       <c r="AA73" s="118"/>
-      <c r="AB73" s="103"/>
+      <c r="AB73" s="115"/>
       <c r="AC73" s="8" t="str">
         <f>IF(ISBLANK($AD$20),"M4",$AD$20)</f>
         <v>Arthur</v>
@@ -8251,7 +8251,7 @@
       <c r="AO73" s="75"/>
       <c r="AP73" s="75"/>
       <c r="AQ73" s="75"/>
-      <c r="AR73" s="136"/>
+      <c r="AR73" s="108"/>
       <c r="AS73" s="75"/>
       <c r="AT73" s="75"/>
       <c r="AU73" s="75"/>
@@ -8260,14 +8260,14 @@
       <c r="AX73" s="75"/>
       <c r="AY73" s="75"/>
       <c r="AZ73" s="29"/>
-      <c r="BA73" s="145"/>
+      <c r="BA73" s="110"/>
       <c r="BE73" s="83"/>
     </row>
-    <row r="74" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="144"/>
+      <c r="B74" s="124"/>
       <c r="C74" s="30"/>
       <c r="D74" s="75"/>
       <c r="E74" s="78"/>
@@ -8277,9 +8277,9 @@
       <c r="I74" s="79"/>
       <c r="J74" s="79"/>
       <c r="K74" s="75"/>
-      <c r="L74" s="136"/>
+      <c r="L74" s="108"/>
       <c r="M74" s="118"/>
-      <c r="P74" s="104"/>
+      <c r="P74" s="116"/>
       <c r="Q74" s="8" t="str">
         <f>IF(ISBLANK($R$48),"H4",$R$48)</f>
         <v>-</v>
@@ -8290,7 +8290,7 @@
       <c r="S74" s="118"/>
       <c r="T74" s="75"/>
       <c r="U74" s="118"/>
-      <c r="V74" s="104"/>
+      <c r="V74" s="116"/>
       <c r="W74" s="9" t="str">
         <f>IF(ISBLANK($X$28),"K4",$X$28)</f>
         <v>RyanGosling</v>
@@ -8301,7 +8301,7 @@
       <c r="Y74" s="118"/>
       <c r="Z74" s="75"/>
       <c r="AA74" s="118"/>
-      <c r="AB74" s="104"/>
+      <c r="AB74" s="116"/>
       <c r="AC74" s="8" t="str">
         <f>IF(ISBLANK($AD$24),"N4",$AD$24)</f>
         <v>Mimolette</v>
@@ -8322,7 +8322,7 @@
       <c r="AO74" s="75"/>
       <c r="AP74" s="75"/>
       <c r="AQ74" s="75"/>
-      <c r="AR74" s="136"/>
+      <c r="AR74" s="108"/>
       <c r="AS74" s="75"/>
       <c r="AT74" s="75"/>
       <c r="AU74" s="75"/>
@@ -8331,14 +8331,14 @@
       <c r="AX74" s="75"/>
       <c r="AY74" s="75"/>
       <c r="AZ74" s="29"/>
-      <c r="BA74" s="145"/>
+      <c r="BA74" s="110"/>
       <c r="BE74" s="83"/>
     </row>
-    <row r="75" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="144"/>
+      <c r="B75" s="124"/>
       <c r="C75" s="30"/>
       <c r="D75" s="75"/>
       <c r="E75" s="78"/>
@@ -8348,9 +8348,9 @@
       <c r="I75" s="79"/>
       <c r="J75" s="79"/>
       <c r="K75" s="75"/>
-      <c r="L75" s="136"/>
+      <c r="L75" s="108"/>
       <c r="M75" s="118"/>
-      <c r="P75" s="102" t="s">
+      <c r="P75" s="114" t="s">
         <v>172</v>
       </c>
       <c r="Q75" s="7" t="str">
@@ -8363,7 +8363,7 @@
       <c r="S75" s="118"/>
       <c r="T75" s="75"/>
       <c r="U75" s="118"/>
-      <c r="V75" s="102" t="s">
+      <c r="V75" s="114" t="s">
         <v>173</v>
       </c>
       <c r="W75" s="7" t="str">
@@ -8375,11 +8375,11 @@
       </c>
       <c r="Y75" s="118"/>
       <c r="Z75" s="75"/>
-      <c r="AA75" s="114"/>
-      <c r="AB75" s="115"/>
-      <c r="AC75" s="115"/>
-      <c r="AD75" s="115"/>
-      <c r="AE75" s="116"/>
+      <c r="AA75" s="111"/>
+      <c r="AB75" s="112"/>
+      <c r="AC75" s="112"/>
+      <c r="AD75" s="112"/>
+      <c r="AE75" s="113"/>
       <c r="AF75" s="76"/>
       <c r="AG75" s="75"/>
       <c r="AH75" s="81"/>
@@ -8392,7 +8392,7 @@
       <c r="AO75" s="75"/>
       <c r="AP75" s="75"/>
       <c r="AQ75" s="75"/>
-      <c r="AR75" s="136"/>
+      <c r="AR75" s="108"/>
       <c r="AS75" s="75"/>
       <c r="AT75" s="75"/>
       <c r="AU75" s="75"/>
@@ -8401,14 +8401,14 @@
       <c r="AX75" s="75"/>
       <c r="AY75" s="75"/>
       <c r="AZ75" s="29"/>
-      <c r="BA75" s="145"/>
+      <c r="BA75" s="110"/>
       <c r="BE75" s="83"/>
     </row>
-    <row r="76" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="144"/>
+      <c r="B76" s="124"/>
       <c r="C76" s="30"/>
       <c r="D76" s="75"/>
       <c r="E76" s="78"/>
@@ -8418,9 +8418,9 @@
       <c r="I76" s="79"/>
       <c r="J76" s="79"/>
       <c r="K76" s="75"/>
-      <c r="L76" s="136"/>
+      <c r="L76" s="108"/>
       <c r="M76" s="118"/>
-      <c r="P76" s="103"/>
+      <c r="P76" s="115"/>
       <c r="Q76" s="8" t="str">
         <f>IF(ISBLANK($R$47),"H3",$R$47)</f>
         <v>SquidGame</v>
@@ -8431,7 +8431,7 @@
       <c r="S76" s="118"/>
       <c r="T76" s="75"/>
       <c r="U76" s="118"/>
-      <c r="V76" s="103"/>
+      <c r="V76" s="115"/>
       <c r="W76" s="8" t="str">
         <f>IF(ISBLANK($R$64),"O2",$R$64)</f>
         <v>Flo</v>
@@ -8458,7 +8458,7 @@
       <c r="AO76" s="75"/>
       <c r="AP76" s="75"/>
       <c r="AQ76" s="75"/>
-      <c r="AR76" s="136"/>
+      <c r="AR76" s="108"/>
       <c r="AS76" s="75"/>
       <c r="AT76" s="75"/>
       <c r="AU76" s="75"/>
@@ -8467,14 +8467,14 @@
       <c r="AX76" s="75"/>
       <c r="AY76" s="75"/>
       <c r="AZ76" s="29"/>
-      <c r="BA76" s="145"/>
+      <c r="BA76" s="110"/>
       <c r="BE76" s="83"/>
     </row>
-    <row r="77" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="B77" s="144"/>
+      <c r="B77" s="124"/>
       <c r="C77" s="30"/>
       <c r="D77" s="75"/>
       <c r="E77" s="78"/>
@@ -8484,9 +8484,9 @@
       <c r="I77" s="79"/>
       <c r="J77" s="79"/>
       <c r="K77" s="75"/>
-      <c r="L77" s="136"/>
+      <c r="L77" s="108"/>
       <c r="M77" s="118"/>
-      <c r="P77" s="103"/>
+      <c r="P77" s="115"/>
       <c r="Q77" s="8" t="str">
         <f>IF(ISBLANK($R$20),"A4",$R$20)</f>
         <v>Leas</v>
@@ -8497,7 +8497,7 @@
       <c r="S77" s="118"/>
       <c r="T77" s="75"/>
       <c r="U77" s="118"/>
-      <c r="V77" s="103"/>
+      <c r="V77" s="115"/>
       <c r="W77" s="8" t="str">
         <f>IF(ISBLANK($X$27),"K3",$X$27)</f>
         <v>Canard</v>
@@ -8524,7 +8524,7 @@
       <c r="AO77" s="75"/>
       <c r="AP77" s="75"/>
       <c r="AQ77" s="75"/>
-      <c r="AR77" s="136"/>
+      <c r="AR77" s="108"/>
       <c r="AS77" s="75"/>
       <c r="AT77" s="75"/>
       <c r="AU77" s="75"/>
@@ -8533,14 +8533,14 @@
       <c r="AX77" s="75"/>
       <c r="AY77" s="75"/>
       <c r="AZ77" s="29"/>
-      <c r="BA77" s="145"/>
+      <c r="BA77" s="110"/>
       <c r="BE77" s="83"/>
     </row>
-    <row r="78" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="144"/>
+      <c r="B78" s="124"/>
       <c r="C78" s="30"/>
       <c r="D78" s="75"/>
       <c r="E78" s="78"/>
@@ -8550,9 +8550,9 @@
       <c r="I78" s="79"/>
       <c r="J78" s="79"/>
       <c r="K78" s="75"/>
-      <c r="L78" s="136"/>
+      <c r="L78" s="108"/>
       <c r="M78" s="119"/>
-      <c r="P78" s="104"/>
+      <c r="P78" s="116"/>
       <c r="Q78" s="8" t="str">
         <f>IF(ISBLANK($R$36),"E4",$R$36)</f>
         <v>AfterEffect</v>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="S78" s="119"/>
       <c r="U78" s="119"/>
-      <c r="V78" s="104"/>
+      <c r="V78" s="116"/>
       <c r="W78" s="9" t="str">
         <f>IF(ISBLANK($X$24),"J4",$X$24)</f>
         <v>Clemclou</v>
@@ -8589,7 +8589,7 @@
       <c r="AO78" s="75"/>
       <c r="AP78" s="75"/>
       <c r="AQ78" s="75"/>
-      <c r="AR78" s="136"/>
+      <c r="AR78" s="108"/>
       <c r="AS78" s="75"/>
       <c r="AT78" s="75"/>
       <c r="AU78" s="75"/>
@@ -8598,14 +8598,14 @@
       <c r="AX78" s="75"/>
       <c r="AY78" s="75"/>
       <c r="AZ78" s="29"/>
-      <c r="BA78" s="145"/>
+      <c r="BA78" s="110"/>
       <c r="BE78" s="83"/>
     </row>
-    <row r="79" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="B79" s="144"/>
+      <c r="B79" s="124"/>
       <c r="C79" s="30"/>
       <c r="D79" s="75"/>
       <c r="E79" s="78"/>
@@ -8615,20 +8615,20 @@
       <c r="I79" s="79"/>
       <c r="J79" s="79"/>
       <c r="K79" s="75"/>
-      <c r="L79" s="136"/>
-      <c r="M79" s="115"/>
-      <c r="N79" s="115"/>
-      <c r="O79" s="115"/>
-      <c r="P79" s="115"/>
-      <c r="Q79" s="115"/>
-      <c r="R79" s="115"/>
-      <c r="S79" s="116"/>
+      <c r="L79" s="108"/>
+      <c r="M79" s="112"/>
+      <c r="N79" s="112"/>
+      <c r="O79" s="112"/>
+      <c r="P79" s="112"/>
+      <c r="Q79" s="112"/>
+      <c r="R79" s="112"/>
+      <c r="S79" s="113"/>
       <c r="T79" s="75"/>
-      <c r="U79" s="114"/>
-      <c r="V79" s="115"/>
-      <c r="W79" s="115"/>
-      <c r="X79" s="115"/>
-      <c r="Y79" s="116"/>
+      <c r="U79" s="111"/>
+      <c r="V79" s="112"/>
+      <c r="W79" s="112"/>
+      <c r="X79" s="112"/>
+      <c r="Y79" s="113"/>
       <c r="Z79" s="75"/>
       <c r="AA79" s="75"/>
       <c r="AB79" s="75"/>
@@ -8647,7 +8647,7 @@
       <c r="AO79" s="75"/>
       <c r="AP79" s="75"/>
       <c r="AQ79" s="75"/>
-      <c r="AR79" s="136"/>
+      <c r="AR79" s="108"/>
       <c r="AS79" s="75"/>
       <c r="AT79" s="75"/>
       <c r="AU79" s="75"/>
@@ -8656,14 +8656,14 @@
       <c r="AX79" s="75"/>
       <c r="AY79" s="75"/>
       <c r="AZ79" s="29"/>
-      <c r="BA79" s="145"/>
+      <c r="BA79" s="110"/>
       <c r="BE79" s="83"/>
     </row>
-    <row r="80" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="144"/>
+      <c r="B80" s="124"/>
       <c r="C80" s="30"/>
       <c r="D80" s="75"/>
       <c r="E80" s="78"/>
@@ -8673,7 +8673,7 @@
       <c r="I80" s="79"/>
       <c r="J80" s="79"/>
       <c r="K80" s="75"/>
-      <c r="L80" s="136"/>
+      <c r="L80" s="108"/>
       <c r="M80" s="75"/>
       <c r="N80" s="75"/>
       <c r="O80" s="75"/>
@@ -8705,7 +8705,7 @@
       <c r="AO80" s="75"/>
       <c r="AP80" s="75"/>
       <c r="AQ80" s="75"/>
-      <c r="AR80" s="136"/>
+      <c r="AR80" s="108"/>
       <c r="AS80" s="75"/>
       <c r="AT80" s="75"/>
       <c r="AU80" s="75"/>
@@ -8714,12 +8714,12 @@
       <c r="AX80" s="75"/>
       <c r="AY80" s="75"/>
       <c r="AZ80" s="29"/>
-      <c r="BA80" s="145"/>
+      <c r="BA80" s="110"/>
       <c r="BE80" s="83"/>
     </row>
-    <row r="81" spans="1:57" s="65" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:57" s="65" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="57"/>
-      <c r="B81" s="144"/>
+      <c r="B81" s="124"/>
       <c r="C81" s="32"/>
       <c r="D81" s="33"/>
       <c r="E81" s="34"/>
@@ -8729,7 +8729,7 @@
       <c r="I81" s="43"/>
       <c r="J81" s="43"/>
       <c r="K81" s="33"/>
-      <c r="L81" s="137"/>
+      <c r="L81" s="109"/>
       <c r="M81" s="33"/>
       <c r="N81" s="33"/>
       <c r="O81" s="33"/>
@@ -8761,7 +8761,7 @@
       <c r="AO81" s="33"/>
       <c r="AP81" s="33"/>
       <c r="AQ81" s="33"/>
-      <c r="AR81" s="137"/>
+      <c r="AR81" s="109"/>
       <c r="AS81" s="33"/>
       <c r="AT81" s="33"/>
       <c r="AU81" s="33"/>
@@ -8770,168 +8770,252 @@
       <c r="AX81" s="33"/>
       <c r="AY81" s="33"/>
       <c r="AZ81" s="35"/>
-      <c r="BA81" s="145"/>
+      <c r="BA81" s="110"/>
       <c r="BE81" s="83"/>
     </row>
-    <row r="82" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="77"/>
     </row>
-    <row r="83" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="77"/>
     </row>
-    <row r="84" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="77"/>
     </row>
-    <row r="85" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="77"/>
     </row>
-    <row r="86" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="77"/>
     </row>
-    <row r="87" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="77"/>
     </row>
-    <row r="88" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="77"/>
     </row>
-    <row r="89" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="77"/>
     </row>
-    <row r="90" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="77"/>
     </row>
-    <row r="91" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="77"/>
     </row>
-    <row r="92" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="77"/>
     </row>
-    <row r="93" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="77"/>
     </row>
-    <row r="94" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="77"/>
     </row>
-    <row r="95" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="77"/>
     </row>
-    <row r="96" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="77"/>
     </row>
-    <row r="97" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="77"/>
     </row>
-    <row r="98" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="77"/>
     </row>
-    <row r="99" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="77"/>
     </row>
-    <row r="100" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="77"/>
     </row>
-    <row r="101" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="77"/>
     </row>
-    <row r="102" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="77"/>
     </row>
-    <row r="103" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="77"/>
     </row>
-    <row r="104" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="77"/>
     </row>
-    <row r="105" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="77"/>
     </row>
-    <row r="106" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="77"/>
     </row>
-    <row r="107" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="77"/>
     </row>
-    <row r="108" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="77"/>
     </row>
-    <row r="109" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="77"/>
     </row>
-    <row r="110" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="77"/>
     </row>
-    <row r="111" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="77"/>
     </row>
-    <row r="112" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="77"/>
     </row>
-    <row r="113" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="77"/>
     </row>
-    <row r="114" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="77"/>
     </row>
-    <row r="115" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="77"/>
     </row>
-    <row r="116" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="77"/>
     </row>
-    <row r="117" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="77"/>
     </row>
-    <row r="118" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="77"/>
     </row>
-    <row r="119" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="77"/>
     </row>
-    <row r="120" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="77"/>
     </row>
-    <row r="121" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="77"/>
     </row>
-    <row r="122" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="77"/>
     </row>
-    <row r="123" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="77"/>
     </row>
-    <row r="124" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="77"/>
     </row>
-    <row r="125" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="1:1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="82" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="P37:P40"/>
+    <mergeCell ref="P33:P36"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="AB21:AB24"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="U11:Y13"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AA11:AE13"/>
+    <mergeCell ref="S15:S48"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="U15:U32"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="V29:V32"/>
+    <mergeCell ref="V17:V20"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="C2:K6"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="M15:M48"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="L2:L81"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="P29:P32"/>
+    <mergeCell ref="P45:P48"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="M11:S13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="AG57:AK59"/>
+    <mergeCell ref="AG60:AK60"/>
+    <mergeCell ref="AG11:AK13"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AH17:AH20"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AK15:AK20"/>
+    <mergeCell ref="AG15:AG20"/>
+    <mergeCell ref="AA60:AE60"/>
+    <mergeCell ref="V67:V70"/>
+    <mergeCell ref="AA57:AE59"/>
+    <mergeCell ref="AC61:AD61"/>
+    <mergeCell ref="Y15:Y32"/>
+    <mergeCell ref="AB17:AB20"/>
+    <mergeCell ref="AA15:AA24"/>
+    <mergeCell ref="AE15:AE24"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="M60:S60"/>
+    <mergeCell ref="U60:Y60"/>
+    <mergeCell ref="U57:Y59"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="M57:S59"/>
+    <mergeCell ref="M79:S79"/>
+    <mergeCell ref="V75:V78"/>
+    <mergeCell ref="U61:U78"/>
+    <mergeCell ref="Y61:Y78"/>
+    <mergeCell ref="U79:Y79"/>
+    <mergeCell ref="P75:P78"/>
+    <mergeCell ref="M61:M78"/>
+    <mergeCell ref="S61:S78"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="V71:V74"/>
+    <mergeCell ref="V63:V66"/>
+    <mergeCell ref="P63:P66"/>
+    <mergeCell ref="P67:P70"/>
+    <mergeCell ref="B1:XFD1"/>
+    <mergeCell ref="B82:XFD1048576"/>
+    <mergeCell ref="B2:B81"/>
+    <mergeCell ref="M52:AQ54"/>
+    <mergeCell ref="M5:AQ7"/>
+    <mergeCell ref="AU17:AU20"/>
+    <mergeCell ref="AU31:AU34"/>
+    <mergeCell ref="AS5:AZ7"/>
+    <mergeCell ref="AM67:AQ67"/>
+    <mergeCell ref="AT11:AY13"/>
+    <mergeCell ref="AT25:AY27"/>
+    <mergeCell ref="AM57:AQ59"/>
+    <mergeCell ref="AM60:AQ60"/>
+    <mergeCell ref="AO61:AP61"/>
+    <mergeCell ref="AN63:AN66"/>
+    <mergeCell ref="AE61:AE74"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="C8:K8"/>
@@ -8948,90 +9032,6 @@
     <mergeCell ref="AB67:AB70"/>
     <mergeCell ref="AB71:AB74"/>
     <mergeCell ref="AA61:AA74"/>
-    <mergeCell ref="B1:XFD1"/>
-    <mergeCell ref="B82:XFD1048576"/>
-    <mergeCell ref="B2:B81"/>
-    <mergeCell ref="M52:AQ54"/>
-    <mergeCell ref="M5:AQ7"/>
-    <mergeCell ref="AU17:AU20"/>
-    <mergeCell ref="AU31:AU34"/>
-    <mergeCell ref="AS5:AZ7"/>
-    <mergeCell ref="AM67:AQ67"/>
-    <mergeCell ref="AT11:AY13"/>
-    <mergeCell ref="AT25:AY27"/>
-    <mergeCell ref="AM57:AQ59"/>
-    <mergeCell ref="AM60:AQ60"/>
-    <mergeCell ref="AO61:AP61"/>
-    <mergeCell ref="AN63:AN66"/>
-    <mergeCell ref="AE61:AE74"/>
-    <mergeCell ref="M79:S79"/>
-    <mergeCell ref="V75:V78"/>
-    <mergeCell ref="U61:U78"/>
-    <mergeCell ref="Y61:Y78"/>
-    <mergeCell ref="U79:Y79"/>
-    <mergeCell ref="P75:P78"/>
-    <mergeCell ref="M61:M78"/>
-    <mergeCell ref="S61:S78"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="V71:V74"/>
-    <mergeCell ref="V63:V66"/>
-    <mergeCell ref="P63:P66"/>
-    <mergeCell ref="P67:P70"/>
-    <mergeCell ref="M60:S60"/>
-    <mergeCell ref="U60:Y60"/>
-    <mergeCell ref="U57:Y59"/>
-    <mergeCell ref="W61:X61"/>
-    <mergeCell ref="M57:S59"/>
-    <mergeCell ref="AA60:AE60"/>
-    <mergeCell ref="V67:V70"/>
-    <mergeCell ref="AA57:AE59"/>
-    <mergeCell ref="AC61:AD61"/>
-    <mergeCell ref="Y15:Y32"/>
-    <mergeCell ref="AB17:AB20"/>
-    <mergeCell ref="AA15:AA24"/>
-    <mergeCell ref="AE15:AE24"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AG57:AK59"/>
-    <mergeCell ref="AG60:AK60"/>
-    <mergeCell ref="AG11:AK13"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AH17:AH20"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AK15:AK20"/>
-    <mergeCell ref="AG15:AG20"/>
-    <mergeCell ref="C2:K6"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="M15:M48"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="L2:L81"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="P29:P32"/>
-    <mergeCell ref="P45:P48"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="M11:S13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="U11:Y13"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="AA11:AE13"/>
-    <mergeCell ref="S15:S48"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="U15:U32"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="V29:V32"/>
-    <mergeCell ref="V17:V20"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="P37:P40"/>
-    <mergeCell ref="P33:P36"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="AB21:AB24"/>
-    <mergeCell ref="V25:V28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q63">
